--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\OGC\25sep20_DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso19157-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B2DBD-4E86-47D0-B695-D80F08D6F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B1439-D1D1-4F27-A930-C442DF98B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" firstSheet="1" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="dataQualityMeasures" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -306,9 +306,6 @@
     <t>textDescription</t>
   </si>
   <si>
-    <t>fromulaType ID</t>
-  </si>
-  <si>
     <t>languageVersion</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>parameter</t>
   </si>
   <si>
-    <t>measureDescriptionID</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -378,22 +372,13 @@
     <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD49</t>
   </si>
   <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD28</t>
-  </si>
-  <si>
     <t>0,054 meter</t>
   </si>
   <si>
     <t>The value true indicates that an item is missing.</t>
   </si>
   <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD5</t>
-  </si>
-  <si>
     <t>https://standards.isotc211.org/19157/-3/1/dqc/basicMeasure/1</t>
-  </si>
-  <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD5example</t>
   </si>
   <si>
     <t>A data product specification requires all towers higher than 300 m to be captured. The data quality measure “missing item” allows a data quality evaluator or a data user to report that a specific item, in this case a feature of type “tower” (name depends on the application schema), is missing.
@@ -1340,18 +1325,6 @@
       </rPr>
       <t>Y</t>
     </r>
-  </si>
-  <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD28_1</t>
-  </si>
-  <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD28_2</t>
-  </si>
-  <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD28_4</t>
-  </si>
-  <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD28_3</t>
   </si>
   <si>
     <t>https://standards.isotc211.org/19157/-3/1/dqc/content/formulaType/FT49_1
@@ -1423,14 +1396,6 @@
     <t>https://standards.isotc211.org/19157/-1/1/dqc/content/qualityMeasure/28</t>
   </si>
   <si>
-    <t>https://github.com/i2vana/ISO19157-3/blob/main/img/62.PNG</t>
-  </si>
-  <si>
-    <t>https://github.com/i2vana/ISO19157-3/blob/main/img/4_1.PNG
-https://github.com/i2vana/ISO19157-3/blob/main/img/4_2.PNG
-https://github.com/i2vana/ISO19157-3/blob/main/img/4_3.PNG</t>
-  </si>
-  <si>
     <t>https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD62</t>
   </si>
   <si>
@@ -1519,6 +1484,23 @@
   </si>
   <si>
     <t>absolute circular error at 90 % significance level of biased data</t>
+  </si>
+  <si>
+    <t>measureID</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>62.PNG</t>
+  </si>
+  <si>
+    <t>4_1.PNG
+4_2.PNG
+4_3.PNG</t>
+  </si>
+  <si>
+    <t>formulaType ID</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1660,11 +1642,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1987,41 +1964,41 @@
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="80.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="64" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375"/>
-    <col min="15" max="15" width="86.5703125" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625"/>
+    <col min="15" max="15" width="86.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="28.8">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -2033,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>72</v>
@@ -2049,7 +2026,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="178.5" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2065,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -2092,11 +2069,11 @@
         <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="120">
-      <c r="A3" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="100.8">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2112,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -2139,11 +2116,11 @@
         <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="150">
-      <c r="A4" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="144">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2186,11 +2163,11 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="90">
-      <c r="A5" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="86.4">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2200,7 +2177,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -2233,11 +2210,11 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="90">
-      <c r="A6" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="86.4">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2247,7 +2224,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -2280,11 +2257,11 @@
         <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="225">
-      <c r="A7" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="187.2">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2327,11 +2304,11 @@
         <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="75">
-      <c r="A8" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="72">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2374,11 +2351,11 @@
         <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="120">
-      <c r="A9" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="115.2">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2421,11 +2398,11 @@
         <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="90">
-      <c r="A10" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="57.6">
+      <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2441,10 +2418,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
@@ -2463,11 +2440,11 @@
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="90">
-      <c r="A11" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="86.4">
+      <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2510,11 +2487,11 @@
         <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="105">
-      <c r="A12" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="100.8">
+      <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2557,11 +2534,11 @@
         <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="60">
-      <c r="A13" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="57.6">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2577,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G13" s="12"/>
       <c r="L13" s="1">
@@ -2590,15 +2567,15 @@
         <v>55</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45">
-      <c r="A14" s="17" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="43.2">
+      <c r="A14" t="s">
+        <v>182</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -2607,10 +2584,10 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L14" s="1">
         <v>49</v>
@@ -2622,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2645,19 +2622,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2675,9 +2652,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
@@ -2705,45 +2682,45 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="77.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="75">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2751,13 +2728,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -2770,150 +2747,175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C66609-5758-4067-9188-E18112A71DFE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="73.21875" customWidth="1"/>
+    <col min="5" max="5" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="144">
+      <c r="A2" s="6">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="100.8">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:5" ht="86.4">
+      <c r="A10">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90">
-      <c r="A11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD49" xr:uid="{D02AA95D-6C4C-408B-BFF4-B543F453AE99}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2922,110 +2924,110 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="165">
+    </row>
+    <row r="2" spans="1:5" ht="129.6">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="86.4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="150">
-      <c r="A4" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="115.2">
+      <c r="A4" t="s">
+        <v>121</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -3034,15 +3036,15 @@
         <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -3051,15 +3053,15 @@
         <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -3068,15 +3070,15 @@
         <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="165">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="144">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -3085,15 +3087,15 @@
         <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="86.4">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -3102,15 +3104,15 @@
         <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="86.4">
       <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -3119,15 +3121,15 @@
         <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="105">
-      <c r="A12" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="100.8">
+      <c r="A12" t="s">
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -3136,15 +3138,15 @@
         <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="144">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="165">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -3153,15 +3155,15 @@
         <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="225">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="201.6">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -3170,15 +3172,15 @@
         <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -3187,15 +3189,15 @@
         <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="180">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="172.8">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -3204,7 +3206,7 @@
         <v>75</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\OGC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF62271B-6BAD-48D0-9FAF-D8E97E5FEE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CA077-440C-4A56-9DA5-71E287897B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="6" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="1605" yWindow="960" windowWidth="27150" windowHeight="14040" tabRatio="712" activeTab="5" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>language</t>
   </si>
   <si>
-    <t xml:space="preserve">mathematicalFormula </t>
-  </si>
-  <si>
     <t>measureParameterID</t>
   </si>
   <si>
@@ -4909,6 +4906,9 @@
   </si>
   <si>
     <t>The value true indicates physical structure conflict.</t>
+  </si>
+  <si>
+    <t>mathematicalFormula</t>
   </si>
 </sst>
 </file>
@@ -5063,7 +5063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5127,17 +5127,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5467,50 +5459,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
         <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
         <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5598,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5607,10 +5599,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
@@ -5628,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>68</v>
@@ -5642,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -5651,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -5672,7 +5664,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>68</v>
@@ -5686,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -5695,10 +5687,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
@@ -5716,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>68</v>
@@ -5739,13 +5731,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>2</v>
@@ -5760,7 +5752,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M5" s="23">
         <v>1</v>
@@ -5774,19 +5766,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
@@ -5804,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M6" s="23" t="s">
         <v>68</v>
@@ -5818,19 +5810,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
@@ -5848,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M7" s="23" t="s">
         <v>68</v>
@@ -5862,19 +5854,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
@@ -5892,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="23" t="s">
         <v>68</v>
@@ -5906,7 +5898,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -5915,10 +5907,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>2</v>
@@ -5936,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>68</v>
@@ -5950,7 +5942,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -5959,10 +5951,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>2</v>
@@ -5994,7 +5986,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -6003,13 +5995,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>2</v>
@@ -6024,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M11" s="23" t="s">
         <v>68</v>
@@ -6044,13 +6036,13 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -6065,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>68</v>
@@ -6088,13 +6080,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -6109,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>68</v>
@@ -6123,7 +6115,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -6132,10 +6124,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>2</v>
@@ -6153,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M14" s="23" t="s">
         <v>68</v>
@@ -6176,13 +6168,13 @@
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>2</v>
@@ -6197,7 +6189,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>68</v>
@@ -6211,7 +6203,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -6220,10 +6212,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>2</v>
@@ -6235,7 +6227,7 @@
         <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M16" s="23" t="s">
         <v>68</v>
@@ -6249,7 +6241,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -6258,10 +6250,10 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>2</v>
@@ -6293,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -6302,10 +6294,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
@@ -6323,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>68</v>
@@ -6337,7 +6329,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -6346,10 +6338,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>2</v>
@@ -6367,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>68</v>
@@ -6381,7 +6373,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -6390,10 +6382,10 @@
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>2</v>
@@ -6411,7 +6403,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>68</v>
@@ -6425,7 +6417,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -6434,10 +6426,10 @@
         <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>2</v>
@@ -6478,13 +6470,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>2</v>
@@ -6499,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>68</v>
@@ -6513,7 +6505,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -6522,13 +6514,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>2</v>
@@ -6557,25 +6549,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -6587,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>68</v>
@@ -6601,25 +6593,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -6631,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>68</v>
@@ -6645,25 +6637,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -6672,10 +6664,10 @@
         <v>2</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>68</v>
@@ -6689,19 +6681,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>2</v>
@@ -6719,7 +6711,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>68</v>
@@ -6733,19 +6725,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>2</v>
@@ -6763,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>68</v>
@@ -6792,11 +6784,11 @@
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H29" s="22"/>
       <c r="L29" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M29" s="23" t="s">
         <v>68</v>
@@ -6810,7 +6802,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -6822,13 +6814,13 @@
         <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>349</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>23</v>
@@ -6851,7 +6843,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>2</v>
@@ -6860,16 +6852,16 @@
         <v>45</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>9</v>
@@ -6892,7 +6884,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -6904,25 +6896,25 @@
         <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>68</v>
@@ -6933,10 +6925,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>45</v>
@@ -6945,10 +6937,10 @@
         <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>2</v>
@@ -6957,7 +6949,7 @@
         <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>2</v>
@@ -6974,22 +6966,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>2</v>
@@ -7015,22 +7007,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="G35" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>2</v>
@@ -7056,25 +7048,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G36" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>48</v>
@@ -7097,25 +7089,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>48</v>
@@ -7138,25 +7130,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="G38" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>48</v>
@@ -7179,22 +7171,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>310</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>311</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>48</v>
@@ -7217,10 +7209,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>45</v>
@@ -7229,10 +7221,10 @@
         <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>2</v>
@@ -7258,10 +7250,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>45</v>
@@ -7270,10 +7262,10 @@
         <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>2</v>
@@ -7285,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>2</v>
@@ -7299,10 +7291,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>45</v>
@@ -7311,13 +7303,13 @@
         <v>46</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>48</v>
@@ -7326,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>68</v>
@@ -7337,28 +7329,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -7378,28 +7370,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="G44" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>2</v>
@@ -7419,28 +7411,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G45" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -7460,28 +7452,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G46" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>2</v>
@@ -7501,28 +7493,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G47" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>2</v>
@@ -7557,7 +7549,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>2</v>
@@ -7586,10 +7578,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>45</v>
@@ -7598,10 +7590,10 @@
         <v>46</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>2</v>
@@ -7613,7 +7605,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>2</v>
@@ -7627,10 +7619,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>45</v>
@@ -7639,19 +7631,19 @@
         <v>46</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>2</v>
@@ -7668,10 +7660,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>45</v>
@@ -7680,10 +7672,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>2</v>
@@ -7692,7 +7684,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>2</v>
@@ -7709,10 +7701,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>45</v>
@@ -7721,19 +7713,19 @@
         <v>46</v>
       </c>
       <c r="F52" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>387</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>48</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>2</v>
@@ -7750,25 +7742,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>48</v>
@@ -7777,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>2</v>
@@ -7791,25 +7783,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>48</v>
@@ -7818,7 +7810,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>2</v>
@@ -7832,7 +7824,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -7841,13 +7833,13 @@
         <v>52</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="G55" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>2</v>
@@ -7873,7 +7865,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -7882,13 +7874,13 @@
         <v>52</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>2</v>
@@ -7914,7 +7906,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -7923,16 +7915,16 @@
         <v>52</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="G57" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>48</v>
@@ -7955,7 +7947,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -7964,16 +7956,16 @@
         <v>52</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="G58" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>48</v>
@@ -7996,7 +7988,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -8005,16 +7997,16 @@
         <v>52</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="G59" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>48</v>
@@ -8046,13 +8038,13 @@
         <v>52</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>2</v>
@@ -8081,7 +8073,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -8090,10 +8082,10 @@
         <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>2</v>
@@ -8125,7 +8117,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -8134,10 +8126,10 @@
         <v>56</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>2</v>
@@ -8184,10 +8176,10 @@
         <v>57</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>9</v>
@@ -8196,7 +8188,7 @@
         <v>58</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M63" s="23" t="s">
         <v>68</v>
@@ -8210,7 +8202,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -8222,13 +8214,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>23</v>
@@ -8240,7 +8232,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M64" s="23" t="s">
         <v>68</v>
@@ -8254,7 +8246,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>2</v>
@@ -8266,13 +8258,13 @@
         <v>2</v>
       </c>
       <c r="F65" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>426</v>
-      </c>
       <c r="H65" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>23</v>
@@ -8295,22 +8287,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>2</v>
@@ -8325,7 +8317,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M66" s="23" t="s">
         <v>68</v>
@@ -8339,19 +8331,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>2</v>
@@ -8383,19 +8375,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>2</v>
@@ -8427,25 +8419,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>48</v>
@@ -8471,25 +8463,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>48</v>
@@ -8515,25 +8507,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="G71" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>48</v>
@@ -8559,25 +8551,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="G72" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>48</v>
@@ -8603,25 +8595,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="G73" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>48</v>
@@ -8647,25 +8639,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="G74" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>48</v>
@@ -8700,13 +8692,13 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>2</v>
@@ -8744,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>60</v>
@@ -8779,19 +8771,19 @@
         <v>103</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>2</v>
@@ -8823,19 +8815,19 @@
         <v>104</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>2</v>
@@ -8867,19 +8859,19 @@
         <v>105</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>2</v>
@@ -8920,13 +8912,13 @@
         <v>34</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>2</v>
@@ -8941,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M80" s="23">
         <v>1</v>
@@ -8955,7 +8947,7 @@
         <v>128</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -8967,10 +8959,10 @@
         <v>46</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>2</v>
@@ -8999,7 +8991,7 @@
         <v>159</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -9008,13 +9000,13 @@
         <v>17</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>2</v>
@@ -9029,7 +9021,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M82" s="23" t="s">
         <v>68</v>
@@ -9043,7 +9035,7 @@
         <v>201</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -9052,22 +9044,22 @@
         <v>17</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>25</v>
@@ -9078,7 +9070,7 @@
         <v>202</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -9087,16 +9079,16 @@
         <v>17</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>9</v>
@@ -9108,10 +9100,10 @@
         <v>2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>25</v>
@@ -9122,7 +9114,7 @@
         <v>203</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -9131,31 +9123,31 @@
         <v>17</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="J85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>25</v>
@@ -9166,25 +9158,25 @@
         <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>23</v>
@@ -9193,13 +9185,13 @@
         <v>2</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>25</v>
@@ -9210,25 +9202,25 @@
         <v>205</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="G87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>31</v>
@@ -9240,10 +9232,10 @@
         <v>2</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>25</v>
@@ -9254,25 +9246,25 @@
         <v>206</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>31</v>
@@ -9281,13 +9273,13 @@
         <v>2</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>25</v>
@@ -9298,25 +9290,25 @@
         <v>207</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>23</v>
@@ -9328,10 +9320,10 @@
         <v>2</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>25</v>
@@ -9378,12 +9370,12 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -9395,16 +9387,16 @@
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -9412,16 +9404,16 @@
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -9429,13 +9421,13 @@
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1">
         <v>11</v>
@@ -9446,16 +9438,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -9463,13 +9455,13 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="1">
         <v>571</v>
@@ -9480,13 +9472,13 @@
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D7" s="1">
         <v>0.98109999999999997</v>
@@ -9497,145 +9489,145 @@
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
       <c r="A10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>48</v>
@@ -9643,10 +9635,10 @@
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>48</v>
@@ -9654,10 +9646,10 @@
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -9665,10 +9657,10 @@
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>48</v>
@@ -9676,10 +9668,10 @@
     </row>
     <row r="24" spans="1:5" ht="30">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>48</v>
@@ -9687,10 +9679,10 @@
     </row>
     <row r="25" spans="1:5" ht="30">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -9725,7 +9717,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>78</v>
@@ -9745,13 +9737,13 @@
     </row>
     <row r="2" spans="1:6" ht="60">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -9759,13 +9751,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -9773,13 +9765,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
         <v>238</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" t="s">
-        <v>239</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>23</v>
@@ -9787,13 +9779,13 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>23</v>
@@ -9801,13 +9793,13 @@
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -9815,16 +9807,16 @@
     </row>
     <row r="7" spans="1:6" ht="135">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D7" t="s">
         <v>259</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="D7" t="s">
-        <v>260</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -9832,13 +9824,13 @@
     </row>
     <row r="8" spans="1:6" ht="31.5">
       <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -9846,13 +9838,13 @@
     </row>
     <row r="9" spans="1:6" ht="31.5">
       <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -9860,95 +9852,95 @@
     </row>
     <row r="10" spans="1:6" ht="31.5">
       <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" t="s">
         <v>359</v>
-      </c>
-      <c r="F10" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="20">
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="20">
         <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" s="20">
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" t="s">
         <v>311</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" t="s">
-        <v>312</v>
       </c>
       <c r="D14" s="21">
         <v>99.8</v>
       </c>
       <c r="F14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
       <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D15" s="21"/>
       <c r="F15" t="s">
@@ -9957,13 +9949,13 @@
     </row>
     <row r="16" spans="1:6" ht="75">
       <c r="A16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -9971,27 +9963,27 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
         <v>387</v>
       </c>
-      <c r="B17" t="s">
-        <v>388</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -9999,118 +9991,118 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" t="s">
         <v>418</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>416</v>
-      </c>
-      <c r="F19" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
         <v>441</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" t="s">
-        <v>442</v>
-      </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" t="s">
         <v>445</v>
       </c>
-      <c r="B22" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" t="s">
-        <v>446</v>
-      </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B23" t="s">
         <v>458</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" t="s">
         <v>485</v>
       </c>
-      <c r="B24" t="s">
-        <v>487</v>
-      </c>
-      <c r="C24" t="s">
-        <v>486</v>
-      </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" t="s">
+        <v>497</v>
+      </c>
+      <c r="B25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B25" t="s">
-        <v>497</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="27" customFormat="1">
-      <c r="A27" s="27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" t="s">
         <v>510</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10133,17 +10125,17 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="119.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>73</v>
@@ -10157,31 +10149,31 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1">
         <v>1.89E-2</v>
@@ -10189,18 +10181,18 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -10208,10 +10200,10 @@
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -10219,7 +10211,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -10228,12 +10220,12 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="120">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -10242,76 +10234,76 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="135">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>67</v>
@@ -10319,7 +10311,7 @@
     </row>
     <row r="19" spans="1:5" ht="30">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
@@ -10327,15 +10319,15 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
@@ -10343,7 +10335,7 @@
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
@@ -10351,39 +10343,39 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30">
       <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>42</v>
@@ -10391,101 +10383,101 @@
     </row>
     <row r="28" spans="1:5" ht="60">
       <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60">
       <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" t="s">
+        <v>723</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C30" t="s">
-        <v>724</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="27" customFormat="1">
-      <c r="A31" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>745</v>
+      <c r="C31" t="s">
+        <v>761</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C35" t="s">
-        <v>727</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
       <c r="A36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" t="s">
+        <v>727</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C36" t="s">
-        <v>728</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -10494,34 +10486,34 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -10530,12 +10522,12 @@
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18">
       <c r="A41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -10544,341 +10536,341 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45">
       <c r="A42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="63">
       <c r="A43" t="s">
+        <v>580</v>
+      </c>
+      <c r="D43" t="s">
         <v>581</v>
       </c>
-      <c r="D43" t="s">
-        <v>582</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="63">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="60">
       <c r="A46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
       <c r="A48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
       <c r="A49" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="27" customFormat="1">
-      <c r="A50" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E50" s="29" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="27" customFormat="1">
-      <c r="A51" s="27" t="s">
+      <c r="E50" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>617</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>772</v>
+      <c r="E51" s="1" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="120">
       <c r="A52" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E52" s="26" t="s">
         <v>623</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="120">
       <c r="A53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" ht="90">
       <c r="A56" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="120">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="45">
       <c r="A58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B58" s="9"/>
       <c r="D58" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="135">
       <c r="A59" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="75">
       <c r="A60" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B60" s="9"/>
       <c r="D60" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="90">
       <c r="A61" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B61" s="9"/>
       <c r="D61" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B62" s="9"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="75">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
       <c r="A65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>64</v>
@@ -10886,111 +10878,111 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="27" customFormat="1" ht="81">
-      <c r="A72" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="27" customFormat="1">
-      <c r="A73" s="27" t="s">
+    <row r="72" spans="1:5" ht="81">
+      <c r="A72" t="s">
+        <v>491</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>775</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
+        <v>475</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
+        <v>477</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45">
       <c r="A76" t="s">
+        <v>460</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
       <c r="A77" t="s">
+        <v>466</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30">
       <c r="A78" t="s">
+        <v>468</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
+        <v>487</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30">
       <c r="A80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30">
       <c r="A81" t="s">
+        <v>503</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30">
       <c r="A82" t="s">
+        <v>511</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -11004,10 +10996,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5533B5C1-A014-4899-B96F-58A34EB61E8E}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11023,13 +11015,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>777</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>88</v>
@@ -11043,13 +11035,13 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="129">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -11058,18 +11050,18 @@
         <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="165">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -11078,18 +11070,18 @@
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="225">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -11098,18 +11090,18 @@
         <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75">
       <c r="A5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -11118,18 +11110,18 @@
         <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="203.25" customHeight="1">
       <c r="A6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -11138,18 +11130,18 @@
         <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="151.5">
       <c r="A7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -11158,15 +11150,15 @@
         <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="126">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -11175,15 +11167,15 @@
         <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="126">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -11192,18 +11184,18 @@
         <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -11212,18 +11204,18 @@
         <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="315">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -11232,7 +11224,7 @@
         <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="61.5">
@@ -11240,7 +11232,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
@@ -11249,18 +11241,18 @@
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="135">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -11269,18 +11261,18 @@
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="120">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
@@ -11289,18 +11281,18 @@
         <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="405">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -11309,18 +11301,18 @@
         <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="135">
       <c r="A16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -11329,18 +11321,18 @@
         <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -11349,18 +11341,18 @@
         <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="75">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -11369,18 +11361,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="375">
       <c r="A19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -11389,15 +11381,15 @@
         <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="120">
       <c r="A20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>
@@ -11406,18 +11398,18 @@
         <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="105">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
@@ -11426,18 +11418,18 @@
         <v>68</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="105">
       <c r="A22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -11446,18 +11438,18 @@
         <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="90">
       <c r="A23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
@@ -11466,18 +11458,18 @@
         <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="88.5" customHeight="1">
       <c r="A24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
@@ -11486,18 +11478,18 @@
         <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="75">
       <c r="A25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -11506,18 +11498,18 @@
         <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75">
       <c r="A26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -11526,18 +11518,18 @@
         <v>68</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="90">
       <c r="A27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -11546,18 +11538,18 @@
         <v>68</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="150">
       <c r="A28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
@@ -11566,18 +11558,18 @@
         <v>68</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="105">
       <c r="A29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
@@ -11586,18 +11578,18 @@
         <v>68</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="120">
       <c r="A30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -11606,18 +11598,18 @@
         <v>68</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="90">
       <c r="A31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -11626,18 +11618,18 @@
         <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="75">
       <c r="A32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
@@ -11646,18 +11638,18 @@
         <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -11666,18 +11658,18 @@
         <v>68</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="180">
       <c r="A34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
@@ -11686,19 +11678,19 @@
         <v>68</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="105">
       <c r="A35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -11707,18 +11699,18 @@
         <v>68</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="105">
       <c r="A36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
@@ -11727,15 +11719,15 @@
         <v>68</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="180">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -11744,18 +11736,18 @@
         <v>68</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="211.5">
       <c r="A38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D38" t="s">
         <v>49</v>
@@ -11764,18 +11756,18 @@
         <v>68</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="165">
       <c r="A39" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
@@ -11784,18 +11776,18 @@
         <v>68</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="240">
       <c r="A40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
@@ -11804,18 +11796,18 @@
         <v>68</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="186.75" customHeight="1">
       <c r="A41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
@@ -11824,19 +11816,19 @@
         <v>68</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="90">
       <c r="A42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D42" t="s">
         <v>49</v>
@@ -11845,18 +11837,18 @@
         <v>68</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" ht="165">
       <c r="A43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B43" s="17">
         <v>6</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
@@ -11865,18 +11857,18 @@
         <v>68</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="165">
       <c r="A44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
@@ -11885,18 +11877,18 @@
         <v>68</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="90">
       <c r="A45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -11905,18 +11897,18 @@
         <v>68</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="150">
       <c r="A46" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -11925,18 +11917,18 @@
         <v>68</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="75">
       <c r="A47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -11945,18 +11937,18 @@
         <v>68</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="A48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
         <v>49</v>
@@ -11965,18 +11957,18 @@
         <v>68</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="165">
       <c r="A49" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
         <v>49</v>
@@ -11985,19 +11977,19 @@
         <v>68</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="105">
       <c r="A50" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
@@ -12006,18 +11998,18 @@
         <v>68</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="90">
       <c r="A51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B51">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
         <v>49</v>
@@ -12026,18 +12018,18 @@
         <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="135">
       <c r="A52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D52" t="s">
         <v>49</v>
@@ -12046,18 +12038,18 @@
         <v>68</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="210">
       <c r="A53" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D53" t="s">
         <v>49</v>
@@ -12066,18 +12058,18 @@
         <v>68</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="210">
       <c r="A54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D54" t="s">
         <v>49</v>
@@ -12086,18 +12078,18 @@
         <v>68</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="135">
       <c r="A55" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D55" t="s">
         <v>49</v>
@@ -12106,18 +12098,18 @@
         <v>68</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="255">
       <c r="A56" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
@@ -12126,18 +12118,18 @@
         <v>68</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="240">
       <c r="A57" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D57" t="s">
         <v>49</v>
@@ -12146,18 +12138,18 @@
         <v>68</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60">
       <c r="A58" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D58" t="s">
         <v>49</v>
@@ -12166,18 +12158,18 @@
         <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="135">
       <c r="A59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
@@ -12186,18 +12178,18 @@
         <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="240">
       <c r="A60" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D60" t="s">
         <v>49</v>
@@ -12206,18 +12198,18 @@
         <v>68</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="105">
       <c r="A61" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D61" t="s">
         <v>49</v>
@@ -12226,19 +12218,19 @@
         <v>68</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7" ht="60">
       <c r="A62" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D62" t="s">
         <v>49</v>
@@ -12247,18 +12239,18 @@
         <v>68</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60">
       <c r="A63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D63" t="s">
         <v>49</v>
@@ -12267,18 +12259,18 @@
         <v>68</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="285">
       <c r="A64" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
@@ -12287,18 +12279,18 @@
         <v>68</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D65" t="s">
         <v>49</v>
@@ -12307,18 +12299,18 @@
         <v>68</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="225">
       <c r="A66" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D66" t="s">
         <v>49</v>
@@ -12327,18 +12319,18 @@
         <v>68</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="105">
       <c r="A67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D67" t="s">
         <v>49</v>
@@ -12347,18 +12339,18 @@
         <v>68</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="60">
       <c r="A68" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D68" t="s">
         <v>49</v>
@@ -12367,15 +12359,15 @@
         <v>68</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D69" t="s">
         <v>49</v>
@@ -12384,15 +12376,15 @@
         <v>68</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="255">
       <c r="A70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D70" t="s">
         <v>49</v>
@@ -12401,15 +12393,15 @@
         <v>68</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="409.5">
       <c r="A71" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D71" t="s">
         <v>49</v>
@@ -12418,7 +12410,7 @@
         <v>68</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -12434,7 +12426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5FB22D-2D9A-4E4C-839D-F701ED7C819D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -12446,57 +12438,57 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>751</v>
-      </c>
-      <c r="C2" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75">
       <c r="A4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>757</v>
-      </c>
-      <c r="C4" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
       <c r="A5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>760</v>
-      </c>
-      <c r="C5" t="s">
-        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CA077-440C-4A56-9DA5-71E287897B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11592C-8722-45AA-8B74-E473B72256B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="960" windowWidth="27150" windowHeight="14040" tabRatio="712" activeTab="5" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="675" yWindow="1140" windowWidth="27150" windowHeight="14040" tabRatio="712" firstSheet="1" activeTab="5" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -5519,7 +5519,7 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
       <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
@@ -10997,9 +10997,9 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11033,15 +11033,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="129">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="255">
       <c r="A2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>767</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -11050,18 +11048,16 @@
         <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="165">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="409.5">
       <c r="A3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>768</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -11070,18 +11066,18 @@
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="225">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="129">
       <c r="A4" t="s">
         <v>594</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -11090,18 +11086,18 @@
         <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="165">
       <c r="A5" t="s">
         <v>594</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -11110,18 +11106,18 @@
         <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>111</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="203.25" customHeight="1">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>575</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -11130,18 +11126,18 @@
         <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="151.5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>576</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -11150,15 +11146,18 @@
         <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="126">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="180">
       <c r="A8" t="s">
-        <v>581</v>
+        <v>595</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -11167,15 +11166,18 @@
         <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="126">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="151.5">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>595</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -11184,18 +11186,15 @@
         <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="75">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="126">
       <c r="A10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -11204,18 +11203,15 @@
         <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="315">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="126">
       <c r="A11" t="s">
-        <v>596</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>587</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -11224,15 +11220,18 @@
         <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="61.5">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75">
+      <c r="A12" t="s">
+        <v>596</v>
+      </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
@@ -11241,18 +11240,18 @@
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="135">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="315">
       <c r="A13" t="s">
         <v>596</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -11261,18 +11260,18 @@
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="120">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="61.5">
       <c r="A14" t="s">
         <v>596</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
@@ -11281,18 +11280,18 @@
         <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="405">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="135">
       <c r="A15" t="s">
         <v>596</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -11301,18 +11300,18 @@
         <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="135">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="120">
       <c r="A16" t="s">
         <v>596</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -11321,18 +11320,18 @@
         <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="409.5">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="405">
       <c r="A17" t="s">
         <v>596</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -11341,18 +11340,18 @@
         <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="135">
       <c r="A18" t="s">
         <v>596</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -11361,18 +11360,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="375">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" t="s">
         <v>596</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -11381,15 +11380,18 @@
         <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="120">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75">
       <c r="A20" t="s">
-        <v>618</v>
+        <v>596</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>
@@ -11397,19 +11399,19 @@
       <c r="E20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="105">
+      <c r="F20" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="375">
       <c r="A21" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
@@ -11417,19 +11419,16 @@
       <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="105">
+      <c r="F21" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="120">
       <c r="A22" t="s">
-        <v>624</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+        <v>618</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -11438,18 +11437,18 @@
         <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="90">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105">
       <c r="A23" t="s">
         <v>624</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
@@ -11458,7 +11457,7 @@
         <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="88.5" customHeight="1">
@@ -11466,10 +11465,10 @@
         <v>624</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>738</v>
+        <v>628</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
@@ -11478,18 +11477,18 @@
         <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="75">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="90">
       <c r="A25" t="s">
         <v>624</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -11498,18 +11497,18 @@
         <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="75">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="90">
       <c r="A26" t="s">
         <v>624</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -11518,18 +11517,18 @@
         <v>68</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="90">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75">
       <c r="A27" t="s">
         <v>624</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -11538,18 +11537,18 @@
         <v>68</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="150">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75">
       <c r="A28" t="s">
         <v>624</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
@@ -11558,18 +11557,18 @@
         <v>68</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="105">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="90">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
@@ -11578,18 +11577,18 @@
         <v>68</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="120">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="150">
       <c r="A30" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -11598,18 +11597,18 @@
         <v>68</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="90">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="105">
       <c r="A31" t="s">
         <v>641</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -11618,18 +11617,18 @@
         <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="75">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="120">
       <c r="A32" t="s">
         <v>641</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
@@ -11638,18 +11637,18 @@
         <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90">
       <c r="A33" t="s">
         <v>641</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -11658,18 +11657,18 @@
         <v>68</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="180">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75">
       <c r="A34" t="s">
         <v>641</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
@@ -11678,19 +11677,19 @@
         <v>68</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>745</v>
+        <v>646</v>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="105">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" t="s">
         <v>641</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -11699,18 +11698,18 @@
         <v>68</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="105">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="180">
       <c r="A36" t="s">
         <v>641</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
@@ -11719,15 +11718,18 @@
         <v>68</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="180">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="105">
       <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>94</v>
+        <v>641</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -11736,18 +11738,18 @@
         <v>68</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="211.5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="105">
       <c r="A38" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>660</v>
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="D38" t="s">
         <v>49</v>
@@ -11756,18 +11758,15 @@
         <v>68</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="165">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="180">
       <c r="A39" t="s">
-        <v>658</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>662</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
@@ -11776,18 +11775,18 @@
         <v>68</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="240">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="211.5">
       <c r="A40" t="s">
         <v>658</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
@@ -11796,7 +11795,7 @@
         <v>68</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="186.75" customHeight="1">
@@ -11804,10 +11803,10 @@
         <v>658</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
@@ -11816,19 +11815,19 @@
         <v>68</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="90">
+    <row r="42" spans="1:7" ht="240">
       <c r="A42" t="s">
         <v>658</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D42" t="s">
         <v>49</v>
@@ -11837,18 +11836,18 @@
         <v>68</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" ht="165">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="240">
       <c r="A43" t="s">
         <v>658</v>
       </c>
-      <c r="B43" s="17">
-        <v>6</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>669</v>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>737</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
@@ -11856,19 +11855,19 @@
       <c r="E43" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="165">
+      <c r="F43" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="90">
       <c r="A44" t="s">
-        <v>597</v>
+        <v>658</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>95</v>
+        <v>667</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
@@ -11876,19 +11875,19 @@
       <c r="E44" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="90">
+      <c r="F44" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="165">
       <c r="A45" t="s">
-        <v>597</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>97</v>
+        <v>658</v>
+      </c>
+      <c r="B45" s="17">
+        <v>6</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>669</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -11896,19 +11895,19 @@
       <c r="E45" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="150">
+      <c r="F45" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="165">
       <c r="A46" t="s">
         <v>597</v>
       </c>
       <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -11916,19 +11915,19 @@
       <c r="E46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="75">
+      <c r="F46" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="90">
       <c r="A47" t="s">
         <v>597</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -11936,19 +11935,19 @@
       <c r="E47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45">
+      <c r="F47" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="150">
       <c r="A48" t="s">
         <v>597</v>
       </c>
       <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="D48" t="s">
         <v>49</v>
@@ -11956,19 +11955,19 @@
       <c r="E48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="165">
+      <c r="F48" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75">
       <c r="A49" t="s">
         <v>597</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
         <v>49</v>
@@ -11976,20 +11975,20 @@
       <c r="E49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>671</v>
+      <c r="F49" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="105">
+    <row r="50" spans="1:7" ht="45">
       <c r="A50" t="s">
         <v>597</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
@@ -11997,19 +11996,19 @@
       <c r="E50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="90">
+      <c r="F50" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="165">
       <c r="A51" t="s">
         <v>597</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>49</v>
@@ -12018,18 +12017,18 @@
         <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="135">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="105">
       <c r="A52" t="s">
-        <v>675</v>
+        <v>597</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>679</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>49</v>
@@ -12037,19 +12036,19 @@
       <c r="E52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="210">
+      <c r="F52" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="90">
       <c r="A53" t="s">
-        <v>675</v>
+        <v>597</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>680</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
         <v>49</v>
@@ -12058,18 +12057,18 @@
         <v>68</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="210">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="135">
       <c r="A54" t="s">
         <v>675</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D54" t="s">
         <v>49</v>
@@ -12078,18 +12077,18 @@
         <v>68</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="135">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="210">
       <c r="A55" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D55" t="s">
         <v>49</v>
@@ -12098,18 +12097,18 @@
         <v>68</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="255">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="210">
       <c r="A56" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
@@ -12118,18 +12117,18 @@
         <v>68</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="240">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="135">
       <c r="A57" t="s">
         <v>686</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="D57" t="s">
         <v>49</v>
@@ -12138,18 +12137,18 @@
         <v>68</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="255">
       <c r="A58" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D58" t="s">
         <v>49</v>
@@ -12158,18 +12157,18 @@
         <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="135">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="240">
       <c r="A59" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
@@ -12178,18 +12177,18 @@
         <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="240">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60">
       <c r="A60" t="s">
         <v>695</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D60" t="s">
         <v>49</v>
@@ -12197,19 +12196,19 @@
       <c r="E60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="105">
+      <c r="F60" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="135">
       <c r="A61" t="s">
         <v>695</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D61" t="s">
         <v>49</v>
@@ -12217,20 +12216,20 @@
       <c r="E61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="26" t="s">
-        <v>702</v>
+      <c r="F61" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="1:7" ht="60">
+    <row r="62" spans="1:7" ht="240">
       <c r="A62" t="s">
         <v>695</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D62" t="s">
         <v>49</v>
@@ -12238,19 +12237,19 @@
       <c r="E62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="60">
+      <c r="F62" s="26" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="105">
       <c r="A63" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D63" t="s">
         <v>49</v>
@@ -12258,19 +12257,19 @@
       <c r="E63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="285">
+      <c r="F63" s="26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60">
       <c r="A64" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
@@ -12279,18 +12278,18 @@
         <v>68</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="409.5">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="60">
       <c r="A65" t="s">
         <v>708</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="D65" t="s">
         <v>49</v>
@@ -12299,18 +12298,18 @@
         <v>68</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="225">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="285">
       <c r="A66" t="s">
         <v>708</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D66" t="s">
         <v>49</v>
@@ -12319,18 +12318,18 @@
         <v>68</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="105">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="409.5">
       <c r="A67" t="s">
         <v>708</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D67" t="s">
         <v>49</v>
@@ -12339,18 +12338,18 @@
         <v>68</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="60">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="225">
       <c r="A68" t="s">
         <v>708</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D68" t="s">
         <v>49</v>
@@ -12359,15 +12358,18 @@
         <v>68</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="409.5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="105">
       <c r="A69" t="s">
-        <v>492</v>
+        <v>708</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D69" t="s">
         <v>49</v>
@@ -12376,15 +12378,18 @@
         <v>68</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="255">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60">
       <c r="A70" t="s">
-        <v>763</v>
+        <v>708</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="D70" t="s">
         <v>49</v>
@@ -12393,15 +12398,15 @@
         <v>68</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>765</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="409.5">
       <c r="A71" t="s">
-        <v>764</v>
+        <v>492</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="D71" t="s">
         <v>49</v>
@@ -12410,15 +12415,15 @@
         <v>68</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>766</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F71">
+    <sortCondition ref="A1:A71"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E44:E48" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12427,7 +12432,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\OGC\090924\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23610B-B457-4F9B-ABE6-C5583AACFEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEFC9A7-97FC-48A1-918B-7E44C595B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="1" activeTab="7" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="7080" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="712" firstSheet="1" activeTab="6" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -6140,9 +6140,6 @@
     <t>formulaTypeID</t>
   </si>
   <si>
-    <t>citaton</t>
-  </si>
-  <si>
     <t>1D variable 50 % probability</t>
   </si>
   <si>
@@ -7624,6 +7621,9 @@
   </si>
   <si>
     <t>The data product specification shall describe the features and how items shall be typed.</t>
+  </si>
+  <si>
+    <t>onlineResource</t>
   </si>
 </sst>
 </file>
@@ -7821,7 +7821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7890,16 +7890,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8335,7 +8325,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>969</v>
@@ -8388,13 +8378,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>122</v>
@@ -8417,16 +8407,16 @@
       <c r="N2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="30">
         <f ca="1">NOW()</f>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="30">
         <f t="shared" ref="Q2:Q65" ca="1" si="0">NOW()</f>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8443,13 +8433,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>863</v>
@@ -8472,16 +8462,16 @@
       <c r="N3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="30">
         <f t="shared" ref="O3:O66" ca="1" si="1">NOW()</f>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8498,13 +8488,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>866</v>
@@ -8527,16 +8517,16 @@
       <c r="N4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8553,13 +8543,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>91</v>
@@ -8582,16 +8572,16 @@
       <c r="N5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="30">
         <f ca="1">NOW()</f>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8608,13 +8598,13 @@
         <v>110</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>140</v>
@@ -8637,16 +8627,16 @@
       <c r="N6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8663,13 +8653,13 @@
         <v>110</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>867</v>
@@ -8692,16 +8682,16 @@
       <c r="N7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8718,13 +8708,13 @@
         <v>110</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>868</v>
@@ -8747,16 +8737,16 @@
       <c r="N8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8773,13 +8763,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>869</v>
@@ -8802,16 +8792,16 @@
       <c r="N9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8828,13 +8818,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>892</v>
@@ -8857,16 +8847,16 @@
       <c r="N10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -8883,13 +8873,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>136</v>
@@ -8912,14 +8902,14 @@
       <c r="N11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="34">
+      <c r="Q11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -8936,13 +8926,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>137</v>
@@ -8965,16 +8955,16 @@
       <c r="N12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -8991,13 +8981,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>138</v>
@@ -9020,16 +9010,16 @@
       <c r="N13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9046,13 +9036,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>352</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>893</v>
@@ -9075,16 +9065,16 @@
       <c r="N14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9101,13 +9091,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>139</v>
@@ -9130,16 +9120,16 @@
       <c r="N15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9156,13 +9146,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>898</v>
@@ -9181,16 +9171,16 @@
       <c r="N16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9207,13 +9197,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>895</v>
@@ -9236,16 +9226,16 @@
       <c r="N17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9262,13 +9252,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>352</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>896</v>
@@ -9291,16 +9281,16 @@
       <c r="N18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9317,13 +9307,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>897</v>
@@ -9346,16 +9336,16 @@
       <c r="N19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9372,13 +9362,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>899</v>
@@ -9401,16 +9391,16 @@
       <c r="N20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9427,13 +9417,13 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>900</v>
@@ -9456,16 +9446,16 @@
       <c r="N21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9482,13 +9472,13 @@
         <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>157</v>
@@ -9511,16 +9501,16 @@
       <c r="N22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9537,13 +9527,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>160</v>
@@ -9566,16 +9556,16 @@
       <c r="N23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9592,13 +9582,13 @@
         <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>901</v>
@@ -9621,16 +9611,16 @@
       <c r="N24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9647,13 +9637,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>902</v>
@@ -9676,16 +9666,16 @@
       <c r="N25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9702,13 +9692,13 @@
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>178</v>
@@ -9731,16 +9721,16 @@
       <c r="N26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9757,13 +9747,13 @@
         <v>22</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>905</v>
@@ -9786,16 +9776,16 @@
       <c r="N27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9812,13 +9802,13 @@
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>906</v>
@@ -9841,16 +9831,16 @@
       <c r="N28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -9867,13 +9857,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>357</v>
@@ -9888,16 +9878,16 @@
       <c r="N29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -9914,13 +9904,13 @@
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>364</v>
@@ -9943,16 +9933,16 @@
       <c r="N30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -9969,13 +9959,13 @@
         <v>26</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>365</v>
@@ -9998,16 +9988,16 @@
       <c r="N31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10024,13 +10014,13 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>367</v>
@@ -10053,16 +10043,16 @@
       <c r="N32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10079,13 +10069,13 @@
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>370</v>
@@ -10108,16 +10098,16 @@
       <c r="N33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10134,13 +10124,13 @@
         <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>193</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>884</v>
@@ -10163,16 +10153,16 @@
       <c r="N34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10189,13 +10179,13 @@
         <v>26</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>266</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>883</v>
@@ -10218,16 +10208,16 @@
       <c r="N35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10244,13 +10234,13 @@
         <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>205</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>885</v>
@@ -10273,16 +10263,16 @@
       <c r="N36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10299,13 +10289,13 @@
         <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>207</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>886</v>
@@ -10328,16 +10318,16 @@
       <c r="N37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10354,13 +10344,13 @@
         <v>26</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>211</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>887</v>
@@ -10383,16 +10373,16 @@
       <c r="N38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10407,13 +10397,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>213</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>888</v>
@@ -10436,16 +10426,16 @@
       <c r="N39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q39" s="34">
+      <c r="Q39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10462,13 +10452,13 @@
         <v>26</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>398</v>
@@ -10491,16 +10481,16 @@
       <c r="N40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10517,13 +10507,13 @@
         <v>26</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>401</v>
@@ -10546,16 +10536,16 @@
       <c r="N41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="34">
+      <c r="O41" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10572,13 +10562,13 @@
         <v>26</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>417</v>
@@ -10598,16 +10588,16 @@
       <c r="N42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O42" s="34">
+      <c r="O42" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="34">
+      <c r="Q42" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10624,13 +10614,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>217</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>218</v>
@@ -10638,7 +10628,7 @@
       <c r="I43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -10653,16 +10643,16 @@
       <c r="N43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O43" s="34">
+      <c r="O43" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="34">
+      <c r="Q43" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10679,13 +10669,13 @@
         <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>221</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>218</v>
@@ -10693,7 +10683,7 @@
       <c r="I44" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J44" s="31" t="s">
+      <c r="J44" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -10708,16 +10698,16 @@
       <c r="N44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="34">
+      <c r="Q44" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10734,13 +10724,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>218</v>
@@ -10748,7 +10738,7 @@
       <c r="I45" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K45" s="5" t="s">
@@ -10763,16 +10753,16 @@
       <c r="N45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="34">
+      <c r="O45" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="34">
+      <c r="Q45" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10789,13 +10779,13 @@
         <v>26</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>230</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>218</v>
@@ -10803,7 +10793,7 @@
       <c r="I46" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -10818,16 +10808,16 @@
       <c r="N46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="34">
+      <c r="O46" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="34">
+      <c r="Q46" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10844,13 +10834,13 @@
         <v>26</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>218</v>
@@ -10858,7 +10848,7 @@
       <c r="I47" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -10873,71 +10863,71 @@
       <c r="N47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="34">
+      <c r="Q47" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="32" customFormat="1" ht="30">
-      <c r="A48" s="30">
+        <v>45544.612310879631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H48" s="31" t="s">
+      <c r="G48" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="I48" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="31" t="s">
+      <c r="I48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K48" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="M48" s="30" t="s">
+      <c r="K48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="34">
+      <c r="O48" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
-      </c>
-      <c r="P48" s="30" t="s">
+        <v>45544.612310879631</v>
+      </c>
+      <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="34">
+      <c r="Q48" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -10954,13 +10944,13 @@
         <v>26</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>433</v>
@@ -10983,16 +10973,16 @@
       <c r="N49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="34">
+      <c r="O49" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="34">
+      <c r="Q49" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11009,13 +10999,13 @@
         <v>26</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>95</v>
@@ -11036,16 +11026,16 @@
       <c r="N50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="34">
+      <c r="O50" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q50" s="34">
+      <c r="Q50" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11062,13 +11052,13 @@
         <v>26</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>447</v>
@@ -11091,16 +11081,16 @@
       <c r="N51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="34">
+      <c r="O51" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q51" s="34">
+      <c r="Q51" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11117,13 +11107,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>458</v>
@@ -11146,16 +11136,16 @@
       <c r="N52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="34">
+      <c r="O52" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="34">
+      <c r="Q52" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11172,13 +11162,13 @@
         <v>262</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>467</v>
@@ -11201,16 +11191,16 @@
       <c r="N53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O53" s="34">
+      <c r="O53" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q53" s="34">
+      <c r="Q53" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11227,13 +11217,13 @@
         <v>262</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>481</v>
@@ -11256,16 +11246,16 @@
       <c r="N54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O54" s="34">
+      <c r="O54" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="34">
+      <c r="Q54" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11282,13 +11272,13 @@
         <v>30</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>266</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>883</v>
@@ -11311,16 +11301,16 @@
       <c r="N55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O55" s="34">
+      <c r="O55" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q55" s="34">
+      <c r="Q55" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11337,13 +11327,13 @@
         <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>193</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>884</v>
@@ -11366,16 +11356,16 @@
       <c r="N56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O56" s="34">
+      <c r="O56" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q56" s="34">
+      <c r="Q56" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11392,13 +11382,13 @@
         <v>30</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>269</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>885</v>
@@ -11421,16 +11411,16 @@
       <c r="N57" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O57" s="34">
+      <c r="O57" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="34">
+      <c r="Q57" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11447,13 +11437,13 @@
         <v>30</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>886</v>
@@ -11476,16 +11466,16 @@
       <c r="N58" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O58" s="34">
+      <c r="O58" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="34">
+      <c r="Q58" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11502,13 +11492,13 @@
         <v>30</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>273</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>887</v>
@@ -11531,16 +11521,16 @@
       <c r="N59" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="34">
+      <c r="O59" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="34">
+      <c r="Q59" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11557,13 +11547,13 @@
         <v>30</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>931</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>888</v>
@@ -11586,16 +11576,16 @@
       <c r="N60" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="34">
+      <c r="O60" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="34">
+      <c r="Q60" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11612,13 +11602,13 @@
         <v>33</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>907</v>
@@ -11641,16 +11631,16 @@
       <c r="N61" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O61" s="34">
+      <c r="O61" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q61" s="34">
+      <c r="Q61" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11667,13 +11657,13 @@
         <v>33</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>908</v>
@@ -11696,16 +11686,16 @@
       <c r="N62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O62" s="34">
+      <c r="O62" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="34">
+      <c r="Q62" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11722,13 +11712,13 @@
         <v>33</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>94</v>
@@ -11749,16 +11739,16 @@
       <c r="N63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="34">
+      <c r="O63" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q63" s="34">
+      <c r="Q63" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11775,13 +11765,13 @@
         <v>33</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>278</v>
@@ -11804,16 +11794,16 @@
       <c r="N64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O64" s="34">
+      <c r="O64" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q64" s="34">
+      <c r="Q64" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11830,13 +11820,13 @@
         <v>33</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>287</v>
@@ -11859,13 +11849,13 @@
       <c r="N65" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O65" s="34">
+      <c r="O65" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
-      </c>
-      <c r="Q65" s="34">
+        <v>45544.612310879631</v>
+      </c>
+      <c r="Q65" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11882,13 +11872,13 @@
         <v>290</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>288</v>
@@ -11911,16 +11901,16 @@
       <c r="N66" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O66" s="34">
+      <c r="O66" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="34">
+      <c r="Q66" s="30">
         <f t="shared" ref="Q66:Q95" ca="1" si="2">NOW()</f>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11937,13 +11927,13 @@
         <v>290</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>352</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>909</v>
@@ -11966,16 +11956,16 @@
       <c r="N67" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O67" s="34">
+      <c r="O67" s="30">
         <f t="shared" ref="O67:O95" ca="1" si="3">NOW()</f>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q67" s="34">
+      <c r="Q67" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11992,13 +11982,13 @@
         <v>290</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>910</v>
@@ -12021,16 +12011,16 @@
       <c r="N68" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O68" s="34">
+      <c r="O68" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q68" s="34">
+      <c r="Q68" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12047,13 +12037,13 @@
         <v>296</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>266</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>883</v>
@@ -12076,16 +12066,16 @@
       <c r="N69" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O69" s="34">
+      <c r="O69" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q69" s="34">
+      <c r="Q69" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12102,13 +12092,13 @@
         <v>296</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>193</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>884</v>
@@ -12131,16 +12121,16 @@
       <c r="N70" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O70" s="34">
+      <c r="O70" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q70" s="34">
+      <c r="Q70" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12157,13 +12147,13 @@
         <v>296</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>269</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>885</v>
@@ -12186,16 +12176,16 @@
       <c r="N71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O71" s="34">
+      <c r="O71" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q71" s="34">
+      <c r="Q71" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12212,13 +12202,13 @@
         <v>296</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>886</v>
@@ -12241,16 +12231,16 @@
       <c r="N72" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O72" s="34">
+      <c r="O72" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="34">
+      <c r="Q72" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12267,13 +12257,13 @@
         <v>296</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>273</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>887</v>
@@ -12296,16 +12286,16 @@
       <c r="N73" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="34">
+      <c r="O73" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="34">
+      <c r="Q73" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12322,13 +12312,13 @@
         <v>296</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>305</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>888</v>
@@ -12351,16 +12341,16 @@
       <c r="N74" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O74" s="34">
+      <c r="O74" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q74" s="34">
+      <c r="Q74" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12377,13 +12367,13 @@
         <v>8</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>345</v>
@@ -12406,16 +12396,16 @@
       <c r="N75" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O75" s="34">
+      <c r="O75" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q75" s="34">
+      <c r="Q75" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12432,13 +12422,13 @@
         <v>8</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>911</v>
@@ -12461,16 +12451,16 @@
       <c r="N76" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O76" s="34">
+      <c r="O76" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="34">
+      <c r="Q76" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12487,13 +12477,13 @@
         <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>912</v>
@@ -12516,16 +12506,16 @@
       <c r="N77" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O77" s="34">
+      <c r="O77" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q77" s="34">
+      <c r="Q77" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12542,13 +12532,13 @@
         <v>8</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>913</v>
@@ -12571,16 +12561,16 @@
       <c r="N78" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O78" s="34">
+      <c r="O78" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q78" s="34">
+      <c r="Q78" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12597,13 +12587,13 @@
         <v>8</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>352</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>914</v>
@@ -12626,16 +12616,16 @@
       <c r="N79" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O79" s="34">
+      <c r="O79" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q79" s="34">
+      <c r="Q79" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12652,13 +12642,13 @@
         <v>18</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>534</v>
@@ -12681,16 +12671,16 @@
       <c r="N80" s="13">
         <v>1</v>
       </c>
-      <c r="O80" s="34">
+      <c r="O80" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q80" s="34">
+      <c r="Q80" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12707,13 +12697,13 @@
         <v>26</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>328</v>
@@ -12736,16 +12726,16 @@
       <c r="N81" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O81" s="34">
+      <c r="O81" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q81" s="34">
+      <c r="Q81" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12762,13 +12752,13 @@
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>319</v>
@@ -12791,16 +12781,16 @@
       <c r="N82" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O82" s="34">
+      <c r="O82" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q82" s="34">
+      <c r="Q82" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12817,13 +12807,13 @@
         <v>8</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>920</v>
@@ -12840,16 +12830,16 @@
       <c r="N83" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O83" s="34">
+      <c r="O83" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q83" s="34">
+      <c r="Q83" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -12866,13 +12856,13 @@
         <v>8</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>921</v>
@@ -12895,16 +12885,16 @@
       <c r="N84" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O84" s="34">
+      <c r="O84" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q84" s="34">
+      <c r="Q84" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -12921,13 +12911,13 @@
         <v>8</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>315</v>
@@ -12950,16 +12940,16 @@
       <c r="N85" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O85" s="34">
+      <c r="O85" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q85" s="34">
+      <c r="Q85" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -12976,13 +12966,13 @@
         <v>22</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>324</v>
@@ -13005,16 +12995,16 @@
       <c r="N86" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O86" s="34">
+      <c r="O86" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q86" s="34">
+      <c r="Q86" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13031,13 +13021,13 @@
         <v>331</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>922</v>
@@ -13060,16 +13050,16 @@
       <c r="N87" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O87" s="34">
+      <c r="O87" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q87" s="34">
+      <c r="Q87" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13086,13 +13076,13 @@
         <v>331</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>923</v>
@@ -13115,16 +13105,16 @@
       <c r="N88" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O88" s="34">
+      <c r="O88" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q88" s="34">
+      <c r="Q88" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13141,13 +13131,13 @@
         <v>331</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>352</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>924</v>
@@ -13162,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="M89" s="5" t="s">
         <v>344</v>
@@ -13170,16 +13160,16 @@
       <c r="N89" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O89" s="34">
+      <c r="O89" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q89" s="34">
+      <c r="Q89" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13196,13 +13186,13 @@
         <v>110</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>842</v>
@@ -13225,16 +13215,16 @@
       <c r="N90" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O90" s="34">
+      <c r="O90" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q90" s="34">
+      <c r="Q90" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13251,13 +13241,13 @@
         <v>110</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>844</v>
@@ -13280,16 +13270,16 @@
       <c r="N91" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O91" s="34">
+      <c r="O91" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q91" s="34">
+      <c r="Q91" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13306,13 +13296,13 @@
         <v>110</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>848</v>
@@ -13333,16 +13323,16 @@
       <c r="N92" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O92" s="34">
+      <c r="O92" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q92" s="34">
+      <c r="Q92" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13359,13 +13349,13 @@
         <v>110</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>851</v>
@@ -13388,16 +13378,16 @@
       <c r="N93" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O93" s="34">
+      <c r="O93" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q93" s="34">
+      <c r="Q93" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13414,13 +13404,13 @@
         <v>110</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>853</v>
@@ -13439,16 +13429,16 @@
       <c r="N94" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O94" s="34">
+      <c r="O94" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q94" s="34">
+      <c r="Q94" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13465,13 +13455,13 @@
         <v>110</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>855</v>
@@ -13492,16 +13482,16 @@
       <c r="N95" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O95" s="34">
+      <c r="O95" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="Q95" s="34">
+      <c r="Q95" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>45544.600974884263</v>
+        <v>45544.612310879631</v>
       </c>
     </row>
   </sheetData>
@@ -13687,7 +13677,7 @@
         <v>192</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>594</v>
@@ -13706,7 +13696,7 @@
         <v>564</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>595</v>
@@ -13725,7 +13715,7 @@
         <v>565</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>596</v>
@@ -13744,7 +13734,7 @@
         <v>566</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>597</v>
@@ -13763,7 +13753,7 @@
         <v>567</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>598</v>
@@ -13782,7 +13772,7 @@
         <v>568</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>599</v>
@@ -13801,7 +13791,7 @@
         <v>569</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>600</v>
@@ -13820,7 +13810,7 @@
         <v>354</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>593</v>
@@ -13839,7 +13829,7 @@
         <v>603</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>592</v>
@@ -13858,7 +13848,7 @@
         <v>604</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>591</v>
@@ -13877,7 +13867,7 @@
         <v>605</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>590</v>
@@ -13896,7 +13886,7 @@
         <v>606</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>589</v>
@@ -13915,7 +13905,7 @@
         <v>602</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>588</v>
@@ -13934,10 +13924,10 @@
         <v>601</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>631</v>
@@ -13953,7 +13943,7 @@
         <v>225</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>699</v>
@@ -13972,7 +13962,7 @@
         <v>613</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>614</v>
@@ -13991,7 +13981,7 @@
         <v>615</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>616</v>
@@ -14010,7 +14000,7 @@
         <v>617</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>618</v>
@@ -14029,7 +14019,7 @@
         <v>619</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>622</v>
@@ -14048,7 +14038,7 @@
         <v>620</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>623</v>
@@ -14067,7 +14057,7 @@
         <v>621</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>624</v>
@@ -14086,7 +14076,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>698</v>
@@ -14105,7 +14095,7 @@
         <v>669</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>674</v>
@@ -14124,7 +14114,7 @@
         <v>670</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>675</v>
@@ -14143,7 +14133,7 @@
         <v>671</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>676</v>
@@ -14162,7 +14152,7 @@
         <v>672</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>677</v>
@@ -14181,7 +14171,7 @@
         <v>673</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>678</v>
@@ -14200,7 +14190,7 @@
         <v>668</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>667</v>
@@ -14219,7 +14209,7 @@
         <v>227</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>697</v>
@@ -14238,7 +14228,7 @@
         <v>707</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>701</v>
@@ -14257,7 +14247,7 @@
         <v>708</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>702</v>
@@ -14276,7 +14266,7 @@
         <v>709</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>703</v>
@@ -14295,7 +14285,7 @@
         <v>710</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>704</v>
@@ -14314,7 +14304,7 @@
         <v>711</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>705</v>
@@ -14333,7 +14323,7 @@
         <v>706</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>700</v>
@@ -14349,7 +14339,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="A43" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>353</v>
@@ -14368,10 +14358,10 @@
     </row>
     <row r="44" spans="1:7" ht="60">
       <c r="A44" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>729</v>
@@ -14387,10 +14377,10 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="A45" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>730</v>
@@ -14406,10 +14396,10 @@
     </row>
     <row r="46" spans="1:7" ht="60">
       <c r="A46" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>731</v>
@@ -14425,10 +14415,10 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="A47" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>732</v>
@@ -14444,10 +14434,10 @@
     </row>
     <row r="48" spans="1:7" ht="60">
       <c r="A48" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>733</v>
@@ -14463,10 +14453,10 @@
     </row>
     <row r="49" spans="1:7" ht="60">
       <c r="A49" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>734</v>
@@ -14485,7 +14475,7 @@
         <v>217</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>356</v>
@@ -14504,7 +14494,7 @@
         <v>221</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>807</v>
@@ -14520,7 +14510,7 @@
         <v>224</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>808</v>
@@ -14536,7 +14526,7 @@
         <v>230</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>809</v>
@@ -14549,10 +14539,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>810</v>
@@ -14666,7 +14656,7 @@
         <v>824</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>828</v>
@@ -14682,10 +14672,10 @@
         <v>821</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>829</v>
@@ -14704,7 +14694,7 @@
         <v>825</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>830</v>
@@ -14723,7 +14713,7 @@
         <v>826</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>831</v>
@@ -14787,7 +14777,7 @@
       <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -14808,7 +14798,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -14822,7 +14812,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -14833,10 +14823,10 @@
         <v>165</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
@@ -14847,10 +14837,10 @@
         <v>171</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
@@ -14861,7 +14851,7 @@
         <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>177</v>
@@ -14875,10 +14865,10 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="s">
         <v>178</v>
@@ -14895,7 +14885,7 @@
         <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -14909,7 +14899,7 @@
         <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -14923,7 +14913,7 @@
         <v>236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -15022,7 +15012,7 @@
         <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D16" s="10">
         <v>99.8</v>
@@ -15039,7 +15029,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D17" s="10"/>
       <c r="F17" t="s">
@@ -15054,7 +15044,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -15082,7 +15072,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -15096,7 +15086,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F21" t="s">
         <v>281</v>
@@ -15110,7 +15100,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F22" t="s">
         <v>282</v>
@@ -15152,7 +15142,7 @@
         <v>308</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -15160,10 +15150,10 @@
         <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F26" t="s">
         <v>282</v>
@@ -15177,7 +15167,7 @@
         <v>332</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -15199,10 +15189,10 @@
         <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -15270,7 +15260,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15281,7 +15271,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15292,7 +15282,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -15314,7 +15304,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -15325,7 +15315,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -15338,7 +15328,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
@@ -15351,7 +15341,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15392,7 +15382,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -15403,7 +15393,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -15414,7 +15404,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -15425,7 +15415,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -15436,7 +15426,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -15447,7 +15437,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -15458,7 +15448,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -15469,7 +15459,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -15493,7 +15483,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60">
@@ -15504,7 +15494,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
@@ -15517,7 +15507,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30">
@@ -15528,7 +15518,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30">
@@ -15539,7 +15529,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -15550,7 +15540,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -15561,7 +15551,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15572,7 +15562,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
@@ -15583,7 +15573,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -15594,7 +15584,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -15605,7 +15595,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -15616,7 +15606,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15627,7 +15617,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -15638,7 +15628,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -15649,7 +15639,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -15660,7 +15650,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -15671,7 +15661,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -15682,7 +15672,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -15693,7 +15683,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
@@ -15739,7 +15729,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.5" customHeight="1">
@@ -15763,7 +15753,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -15787,7 +15777,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="60">
@@ -15800,7 +15790,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60">
@@ -15824,7 +15814,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
@@ -15837,7 +15827,7 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -15848,7 +15838,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30">
@@ -15878,7 +15868,7 @@
         <v>102</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="51">
@@ -15893,7 +15883,7 @@
         <v>103</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="51">
@@ -15908,7 +15898,7 @@
         <v>104</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15923,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18">
@@ -15992,7 +15982,7 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="60">
@@ -16106,7 +16096,7 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F71" s="14"/>
     </row>
@@ -16120,7 +16110,7 @@
         <v>105</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -16258,7 +16248,7 @@
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="45">
@@ -16282,7 +16272,7 @@
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -16295,7 +16285,7 @@
         <v>329</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -16306,7 +16296,7 @@
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -16350,7 +16340,7 @@
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -16361,7 +16351,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -16372,7 +16362,7 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -16383,7 +16373,7 @@
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -16394,7 +16384,7 @@
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -16405,7 +16395,7 @@
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -16416,7 +16406,7 @@
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="81">
@@ -16451,7 +16441,7 @@
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -16462,7 +16452,7 @@
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30">
@@ -16473,7 +16463,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45">
@@ -16497,7 +16487,7 @@
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30">
@@ -16510,7 +16500,7 @@
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
@@ -16521,7 +16511,7 @@
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30">
@@ -16532,7 +16522,7 @@
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -16545,7 +16535,7 @@
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -16556,7 +16546,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
@@ -16578,7 +16568,7 @@
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30">
@@ -16589,7 +16579,7 @@
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -16600,7 +16590,7 @@
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30">
@@ -16650,7 +16640,7 @@
         <v>560</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -16663,7 +16653,7 @@
         <v>561</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -16676,7 +16666,7 @@
         <v>562</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -16689,7 +16679,7 @@
         <v>563</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -16702,7 +16692,7 @@
         <v>559</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -16715,7 +16705,7 @@
         <v>552</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -17196,7 +17186,7 @@
         <v>816</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -17209,7 +17199,7 @@
         <v>817</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -17222,7 +17212,7 @@
         <v>818</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -17235,7 +17225,7 @@
         <v>811</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -17248,7 +17238,7 @@
         <v>812</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -17261,7 +17251,7 @@
         <v>813</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -17274,7 +17264,7 @@
         <v>814</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -17287,7 +17277,7 @@
         <v>815</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -17300,7 +17290,7 @@
         <v>832</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -17313,7 +17303,7 @@
         <v>833</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -17326,7 +17316,7 @@
         <v>834</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -17339,7 +17329,7 @@
         <v>835</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="45">
@@ -17354,7 +17344,7 @@
         <v>871</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="45">
@@ -17369,7 +17359,7 @@
         <v>872</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45">
@@ -17384,7 +17374,7 @@
         <v>873</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="195">
@@ -17397,7 +17387,7 @@
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30">
@@ -17410,7 +17400,7 @@
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30">
@@ -17458,7 +17448,7 @@
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="30">
@@ -17482,7 +17472,7 @@
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="75">
@@ -17495,7 +17485,7 @@
       </c>
       <c r="D181" s="8"/>
       <c r="E181" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="20.25" customHeight="1">
@@ -17506,7 +17496,7 @@
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="45">
@@ -17541,7 +17531,7 @@
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -17552,7 +17542,7 @@
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -17563,7 +17553,7 @@
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -17574,7 +17564,7 @@
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -17585,7 +17575,7 @@
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
   </sheetData>
@@ -18181,7 +18171,7 @@
         <v>39</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="150">
@@ -18201,7 +18191,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="105">
@@ -18302,7 +18292,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="180">
@@ -18322,7 +18312,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="105">
@@ -18601,7 +18591,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="165">
@@ -18621,7 +18611,7 @@
         <v>39</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="105">
@@ -20056,8 +20046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5FB22D-2D9A-4E4C-839D-F701ED7C819D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20071,10 +20061,10 @@
         <v>514</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>976</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20106,7 +20096,7 @@
       <c r="B4" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" t="s">
         <v>967</v>
       </c>
     </row>
@@ -20126,7 +20116,7 @@
         <v>856</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C6" t="s">
         <v>965</v>
@@ -20145,13 +20135,13 @@
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>1137</v>
+        <v>1241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -20163,7 +20153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B6858-2052-4C2F-91E5-028849CAB7F9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -20175,58 +20165,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\120924\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\OGC\170924\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E47C58-715C-4CD3-9CA9-28B6BA419579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475ABDC7-3E82-4BA0-9DA2-E04C34889402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="1" activeTab="1" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="1" activeTab="5" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1263">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -7437,183 +7437,6 @@
     <t>onlineResource</t>
   </si>
   <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;Z&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;msub&gt; &lt;mi&gt;S&lt;/mi&gt; &lt;mi&gt;Z&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;0.6745&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.645&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.576&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50r1&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.414&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50r2&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.604&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50r3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.423&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50r4&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.344&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50r5&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.301&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;50r10&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.221&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3r1&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3.933&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3r2&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.203&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3r3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.868&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3r4&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.731&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3r5&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.657&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;68.3r10&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;1.524&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90r1&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;12.706&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90r2&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;4.303&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90r3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3.182&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90r4&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.776&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90r5&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.571&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;90r10&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.228&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95r1&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;25.452&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95r2&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;6.205&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95r3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;4.177&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95r4&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3.495&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95r5&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3.163&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;95r10&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;2.634&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99r1&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;127.321&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99r2&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;14.089&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99r3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;7.453&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99r4&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;5.598&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99r5&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;4.773&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99r10&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;3.581&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8r1&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;636.619&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8r2&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;31.599&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8r3&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;12.924&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8r4&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;8.610&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8r5&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;6.869&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;mi&gt;E&lt;/mi&gt; &lt;mn&gt;99.8r10&lt;/mn&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;4.587&lt;/mn&gt; &lt;mo&gt;&amp;#x2219;&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;mo&gt;&amp;#x2212;&lt;/mo&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;/mrow&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;X&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;Y&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;msqrt&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mn&gt;1&lt;/mn&gt; &lt;msqrt&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msqrt&gt; &lt;/mfrac&gt; &lt;msqrt&gt; &lt;msubsup&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msubsup&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mn&gt;1.1774&lt;/mn&gt; &lt;msqrt&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msqrt&gt; &lt;/mfrac&gt; &lt;msqrt&gt; &lt;msubsup&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msubsup&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mn&gt;2.146&lt;/mn&gt; &lt;msqrt&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msqrt&gt; &lt;/mfrac&gt; &lt;msqrt&gt; &lt;msubsup&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msubsup&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mn&gt;2.4477&lt;/mn&gt; &lt;msqrt&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msqrt&gt; &lt;/mfrac&gt; &lt;msqrt&gt; &lt;msubsup&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msubsup&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mn&gt;3.5&lt;/mn&gt; &lt;msqrt&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msqrt&gt; &lt;/mfrac&gt; &lt;msqrt&gt; &lt;msubsup&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msubsup&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mn&gt;0.51&lt;/mn&gt; &lt;mo&gt;&amp;#xd7;&lt;/mo&gt; &lt;mo&gt;(&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;+&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;y&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;+&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;z&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;)&lt;/mo&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;msqrt&gt; &lt;msubsup&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;mn&gt;2&lt;/mn&gt; &lt;/msubsup&gt; &lt;/msqrt&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mn&gt;0.833&lt;/mn&gt; &lt;mo&gt;&amp;#xd7;&lt;/mo&gt; &lt;mo&gt;(&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;+&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;y&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;+&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;z&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;)&lt;/mo&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mn&gt;1.122&lt;/mn&gt; &lt;mo&gt;&amp;#xd7;&lt;/mo&gt; &lt;mo&gt;(&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;x&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;+&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;y&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;+&lt;/mo&gt; &lt;msub&gt; &lt;mi&gt;&amp;#x3c3;&lt;/mi&gt; &lt;mi&gt;z&lt;/mi&gt; &lt;/msub&gt; &lt;mo&gt;)&lt;/mo&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mrow&gt; &lt;mi&gt;n&lt;/mi&gt; &lt;mi&gt;&amp;#xa0;&lt;/mi&gt; &lt;/mrow&gt; &lt;mi&gt;N&lt;/mi&gt; &lt;/mfrac&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mrow&gt; &lt;munderover&gt; &lt;mo&gt;&amp;#x2211;&lt;/mo&gt; &lt;mrow&gt; &lt;mi&gt;i&lt;/mi&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;0&lt;/mn&gt; &lt;/mrow&gt; &lt;mi&gt;n&lt;/mi&gt; &lt;/munderover&gt; &lt;msub&gt; &lt;mi&gt;l&lt;/mi&gt; &lt;mi&gt;i&lt;/mi&gt; &lt;/msub&gt; &lt;/mrow&gt; &lt;mi&gt;&amp;#xa0;&lt;/mi&gt; &lt;mi&gt;L&lt;/mi&gt; &lt;/mfrac&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mrow&gt; &lt;munderover&gt; &lt;mo&gt;&amp;#x2211;&lt;/mo&gt; &lt;mrow&gt; &lt;mi&gt;i&lt;/mi&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;0&lt;/mn&gt; &lt;/mrow&gt; &lt;mrow&gt; &lt;mi&gt;n&lt;/mi&gt; &lt;mi&gt;&amp;#x27;&lt;/mi&gt; &lt;/mrow&gt; &lt;/munderover&gt; &lt;msub&gt; &lt;mrow&gt; &lt;mi&gt;a&lt;/mi&gt; &lt;mi&gt;&amp;#x27;&lt;/mi&gt; &lt;/mrow&gt; &lt;mi&gt;i&lt;/mi&gt; &lt;/msub&gt; &lt;/mrow&gt; &lt;mi&gt;&amp;#xa0;&lt;/mi&gt; &lt;mi&gt;A&lt;/mi&gt; &lt;/mfrac&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="block"&gt; &lt;mstyle displaystyle="true"&gt; &lt;mfrac&gt; &lt;mrow&gt; &lt;munderover&gt; &lt;mo&gt;&amp;#x2211;&lt;/mo&gt; &lt;mrow&gt; &lt;mi&gt;i&lt;/mi&gt; &lt;mo&gt;=&lt;/mo&gt; &lt;mn&gt;0&lt;/mn&gt; &lt;/mrow&gt; &lt;mi&gt;n&lt;/mi&gt; &lt;/munderover&gt; &lt;msub&gt; &lt;mi&gt;t&lt;/mi&gt; &lt;mi&gt;i&lt;/mi&gt; &lt;/msub&gt; &lt;/mrow&gt; &lt;mi&gt;&amp;#xa0;&lt;/mi&gt; &lt;mi&gt;T&lt;/mi&gt; &lt;/mfrac&gt; &lt;/mstyle&gt; &lt;/math&gt;</t>
-  </si>
-  <si>
     <t>complete tessellation</t>
   </si>
   <si>
@@ -7621,6 +7444,309 @@
   </si>
   <si>
     <t>number of items not compliant with the rules of the conceptual schema</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;Z&lt;/mi&gt;&lt;/msub&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;msub&gt;&lt;mi&gt;S&lt;/mi&gt;&lt;mi&gt;Z&lt;/mi&gt;&lt;/msub&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;0.6745&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.645&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.960&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.576&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a number of observations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> measurement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the arithmetic mean of the observations</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.414&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.604&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.423&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.344&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.301&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.221&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;3.933&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.203&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.868&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.731&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.657&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;68.3&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1.524&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;12.706&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;4.303&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;3.182&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.776&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.571&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;90&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.228&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;25.452&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;6.205&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;4.177&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;3.495&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;3.163&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;95&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;2.634&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;127.321&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;14.089&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;7.453&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;5.598&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;4.773&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;3.581&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;636.619&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;31.599&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;12.924&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;8.610&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;6.869&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mi&gt;E&lt;/mi&gt;&lt;mn&gt;99.8&lt;/mn&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;4.587&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;/msub&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/mfrac&gt;&lt;munderover accent='false' accentunder='false'&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;N&lt;/mi&gt;&lt;/munderover&gt;&lt;mrow&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mrow&gt;&lt;mi&gt;m&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;-&lt;/mo&gt;&lt;msub&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;msqrt&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msqrt&gt;&lt;/mfrac&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mn&gt;1.1774&lt;/mn&gt;&lt;msqrt&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msqrt&gt;&lt;/mfrac&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mn&gt;2.146&lt;/mn&gt;&lt;msqrt&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msqrt&gt;&lt;/mfrac&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mn&gt;2.4477&lt;/mn&gt;&lt;msqrt&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msqrt&gt;&lt;/mfrac&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mn&gt;3.5&lt;/mn&gt;&lt;msqrt&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msqrt&gt;&lt;/mfrac&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;msqrt&gt;&lt;mrow&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/msqrt&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mn&gt;0.51&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mn&gt;0.833&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mn&gt;1.22&lt;/mn&gt;&lt;mo&gt;&amp;#xd7;&lt;/mo&gt;&lt;mo&gt;(&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;x&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;y&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;+&lt;/mo&gt;&lt;msup&gt;&lt;msub&gt;&lt;mi&gt;&amp;#x3c3;&lt;/mi&gt;&lt;mi&gt;z&lt;/mi&gt;&lt;/msub&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/msup&gt;&lt;mo&gt;)&lt;/mo&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mrow&gt;&lt;msubsup&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;/mrow&gt;&lt;mrow&gt;&lt;mi&gt;n&lt;/mi&gt;&lt;mo&gt;'&lt;/mo&gt;&lt;/mrow&gt;&lt;/msubsup&gt;&lt;msub&gt;&lt;mi&gt;a&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;mi&gt;A&lt;/mi&gt;&lt;/mfrac&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mrow&gt;&lt;msubsup&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;/mrow&gt;&lt;mrow&gt;&lt;mi&gt;n&lt;/mi&gt;&lt;mo&gt;'&lt;/mo&gt;&lt;/mrow&gt;&lt;/msubsup&gt;&lt;msub&gt;&lt;mi&gt;p&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;mi&gt;P&lt;/mi&gt;&lt;/mfrac&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mrow&gt;&lt;msubsup&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;/mrow&gt;&lt;mrow&gt;&lt;mi&gt;n&lt;/mi&gt;&lt;mo&gt;'&lt;/mo&gt;&lt;/mrow&gt;&lt;/msubsup&gt;&lt;msub&gt;&lt;mi&gt;l&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;/mfrac&gt;&lt;/math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math xmlns="http://www.w3.org/1998/Math/MathML"&gt;&lt;mfrac&gt;&lt;mrow&gt;&lt;msubsup&gt;&lt;mo&gt;&amp;#x2211;&lt;/mo&gt;&lt;mrow&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;mo&gt;=&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;/mrow&gt;&lt;mi&gt;n&lt;/mi&gt;&lt;/msubsup&gt;&lt;msub&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;mi&gt;i&lt;/mi&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;mi&gt;T&lt;/mi&gt;&lt;/mfrac&gt;&lt;/math&gt;</t>
   </si>
 </sst>
 </file>
@@ -7818,7 +7944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7868,9 +7994,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7881,16 +8004,24 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8281,10 +8412,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3172BD-82A1-4B48-B576-8E07319DA0DE}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8404,16 +8535,16 @@
       <c r="N2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8459,16 +8590,16 @@
       <c r="N3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8514,16 +8645,16 @@
       <c r="N4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8569,16 +8700,16 @@
       <c r="N5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8624,16 +8755,16 @@
       <c r="N6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8679,16 +8810,16 @@
       <c r="N7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8734,16 +8865,16 @@
       <c r="N8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8789,16 +8920,16 @@
       <c r="N9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8844,16 +8975,16 @@
       <c r="N10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -8861,7 +8992,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1260</v>
+        <v>1201</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -8899,14 +9030,14 @@
       <c r="N11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="30">
+      <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -8952,16 +9083,16 @@
       <c r="N12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9007,16 +9138,16 @@
       <c r="N13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9062,16 +9193,16 @@
       <c r="N14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9117,16 +9248,16 @@
       <c r="N15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9168,16 +9299,16 @@
       <c r="N16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9223,16 +9354,16 @@
       <c r="N17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9278,16 +9409,16 @@
       <c r="N18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9333,16 +9464,16 @@
       <c r="N19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9388,16 +9519,16 @@
       <c r="N20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9443,16 +9574,16 @@
       <c r="N21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9498,16 +9629,16 @@
       <c r="N22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9553,16 +9684,16 @@
       <c r="N23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9608,16 +9739,16 @@
       <c r="N24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9663,16 +9794,16 @@
       <c r="N25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9718,16 +9849,16 @@
       <c r="N26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9773,16 +9904,16 @@
       <c r="N27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9828,16 +9959,16 @@
       <c r="N28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -9875,16 +10006,16 @@
       <c r="N29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -9930,16 +10061,16 @@
       <c r="N30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -9985,16 +10116,16 @@
       <c r="N31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10040,16 +10171,16 @@
       <c r="N32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10095,16 +10226,16 @@
       <c r="N33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10150,16 +10281,16 @@
       <c r="N34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10205,16 +10336,16 @@
       <c r="N35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="30">
+      <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10260,16 +10391,16 @@
       <c r="N36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="30">
+      <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10315,16 +10446,16 @@
       <c r="N37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10370,16 +10501,16 @@
       <c r="N38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10423,16 +10554,16 @@
       <c r="N39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10478,16 +10609,16 @@
       <c r="N40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10533,16 +10664,16 @@
       <c r="N41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10585,16 +10716,16 @@
       <c r="N42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10640,16 +10771,16 @@
       <c r="N43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10695,16 +10826,16 @@
       <c r="N44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="30">
+      <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10750,16 +10881,16 @@
       <c r="N45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="30">
+      <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="30">
+      <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10805,16 +10936,16 @@
       <c r="N46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10860,16 +10991,16 @@
       <c r="N47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="30">
+      <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="30">
+      <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10915,16 +11046,16 @@
       <c r="N48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="30">
+      <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="30">
+      <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -10970,16 +11101,16 @@
       <c r="N49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="30">
+      <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="30">
+      <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11023,16 +11154,16 @@
       <c r="N50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="30">
+      <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11078,16 +11209,16 @@
       <c r="N51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="30">
+      <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q51" s="30">
+      <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11133,16 +11264,16 @@
       <c r="N52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="30">
+      <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="30">
+      <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11188,16 +11319,16 @@
       <c r="N53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O53" s="30">
+      <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q53" s="30">
+      <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11243,16 +11374,16 @@
       <c r="N54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O54" s="30">
+      <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11298,16 +11429,16 @@
       <c r="N55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O55" s="30">
+      <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11353,16 +11484,16 @@
       <c r="N56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O56" s="30">
+      <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q56" s="30">
+      <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11408,16 +11539,16 @@
       <c r="N57" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O57" s="30">
+      <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="30">
+      <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11463,16 +11594,16 @@
       <c r="N58" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O58" s="30">
+      <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11518,16 +11649,16 @@
       <c r="N59" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="30">
+      <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="30">
+      <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11573,16 +11704,16 @@
       <c r="N60" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="30">
+      <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="30">
+      <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11628,16 +11759,16 @@
       <c r="N61" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O61" s="30">
+      <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q61" s="30">
+      <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11683,16 +11814,16 @@
       <c r="N62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O62" s="30">
+      <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="30">
+      <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11736,16 +11867,16 @@
       <c r="N63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="30">
+      <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q63" s="30">
+      <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11791,16 +11922,16 @@
       <c r="N64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O64" s="30">
+      <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q64" s="30">
+      <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11846,13 +11977,13 @@
       <c r="N65" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O65" s="30">
+      <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45547.73476608796</v>
-      </c>
-      <c r="Q65" s="30">
+        <v>45552.45964641204</v>
+      </c>
+      <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11898,16 +12029,16 @@
       <c r="N66" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O66" s="30">
+      <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="30">
+      <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11953,16 +12084,16 @@
       <c r="N67" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O67" s="30">
+      <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q67" s="30">
+      <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12008,16 +12139,16 @@
       <c r="N68" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O68" s="30">
+      <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q68" s="30">
+      <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12063,16 +12194,16 @@
       <c r="N69" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O69" s="30">
+      <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q69" s="30">
+      <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12118,16 +12249,16 @@
       <c r="N70" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O70" s="30">
+      <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q70" s="30">
+      <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12173,16 +12304,16 @@
       <c r="N71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O71" s="30">
+      <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q71" s="30">
+      <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12228,16 +12359,16 @@
       <c r="N72" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O72" s="30">
+      <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="30">
+      <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12283,16 +12414,16 @@
       <c r="N73" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="30">
+      <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="30">
+      <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12300,7 +12431,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1259</v>
+        <v>1200</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>1</v>
@@ -12338,16 +12469,16 @@
       <c r="N74" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O74" s="30">
+      <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q74" s="30">
+      <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12393,16 +12524,16 @@
       <c r="N75" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O75" s="30">
+      <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q75" s="30">
+      <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12448,16 +12579,16 @@
       <c r="N76" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O76" s="30">
+      <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="30">
+      <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12503,16 +12634,16 @@
       <c r="N77" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O77" s="30">
+      <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q77" s="30">
+      <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12558,16 +12689,16 @@
       <c r="N78" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O78" s="30">
+      <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q78" s="30">
+      <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12613,16 +12744,16 @@
       <c r="N79" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O79" s="30">
+      <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q79" s="30">
+      <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12668,16 +12799,16 @@
       <c r="N80" s="13">
         <v>1</v>
       </c>
-      <c r="O80" s="30">
+      <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q80" s="30">
+      <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12723,16 +12854,16 @@
       <c r="N81" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O81" s="30">
+      <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q81" s="30">
+      <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12778,16 +12909,16 @@
       <c r="N82" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O82" s="30">
+      <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q82" s="30">
+      <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12827,16 +12958,16 @@
       <c r="N83" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O83" s="30">
+      <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q83" s="30">
+      <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -12882,16 +13013,16 @@
       <c r="N84" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O84" s="30">
+      <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q84" s="30">
+      <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -12937,16 +13068,16 @@
       <c r="N85" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O85" s="30">
+      <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q85" s="30">
+      <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -12954,7 +13085,7 @@
         <v>204</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1258</v>
+        <v>1199</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>320</v>
@@ -12992,16 +13123,16 @@
       <c r="N86" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O86" s="30">
+      <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q86" s="30">
+      <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13047,16 +13178,16 @@
       <c r="N87" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O87" s="30">
+      <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q87" s="30">
+      <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13102,16 +13233,16 @@
       <c r="N88" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O88" s="30">
+      <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q88" s="30">
+      <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13157,16 +13288,16 @@
       <c r="N89" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O89" s="30">
+      <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q89" s="30">
+      <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13212,16 +13343,16 @@
       <c r="N90" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O90" s="30">
+      <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q90" s="30">
+      <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13267,16 +13398,16 @@
       <c r="N91" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O91" s="30">
+      <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q91" s="30">
+      <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13320,16 +13451,16 @@
       <c r="N92" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O92" s="30">
+      <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q92" s="30">
+      <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13375,16 +13506,16 @@
       <c r="N93" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O93" s="30">
+      <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q93" s="30">
+      <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13426,16 +13557,16 @@
       <c r="N94" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O94" s="30">
+      <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q94" s="30">
+      <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13479,16 +13610,16 @@
       <c r="N95" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O95" s="30">
+      <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q95" s="30">
+      <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45547.73476608796</v>
+        <v>45552.45964641204</v>
       </c>
     </row>
   </sheetData>
@@ -14774,7 +14905,7 @@
       <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -17586,10 +17717,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5533B5C1-A014-4899-B96F-58A34EB61E8E}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72:C131"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17600,31 +17731,32 @@
     <col min="4" max="4" width="44.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" ht="255">
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="255">
       <c r="A2" s="8" t="s">
         <v>525</v>
       </c>
@@ -17635,14 +17767,15 @@
       <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="24" customFormat="1" ht="409.5">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="409.5">
       <c r="A3" s="8" t="s">
         <v>526</v>
       </c>
@@ -17653,14 +17786,15 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="129">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="129">
       <c r="A4" s="8" t="s">
         <v>373</v>
       </c>
@@ -17673,14 +17807,14 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="165">
+    <row r="5" spans="1:7" ht="165">
       <c r="A5" s="8" t="s">
         <v>373</v>
       </c>
@@ -17693,14 +17827,14 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="222.75" customHeight="1">
+    <row r="6" spans="1:7" ht="222.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>373</v>
       </c>
@@ -17713,14 +17847,14 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75">
+    <row r="7" spans="1:7" ht="75">
       <c r="A7" s="8" t="s">
         <v>373</v>
       </c>
@@ -17733,14 +17867,14 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="180">
+    <row r="8" spans="1:7" ht="180">
       <c r="A8" s="8" t="s">
         <v>374</v>
       </c>
@@ -17753,14 +17887,14 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="151.5">
+    <row r="9" spans="1:7" ht="151.5">
       <c r="A9" s="8" t="s">
         <v>374</v>
       </c>
@@ -17773,14 +17907,14 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="126">
+    <row r="10" spans="1:7" ht="144">
       <c r="A10" s="8" t="s">
         <v>363</v>
       </c>
@@ -17790,14 +17924,14 @@
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="126">
+    <row r="11" spans="1:7" ht="144">
       <c r="A11" s="8" t="s">
         <v>366</v>
       </c>
@@ -17807,14 +17941,14 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75">
+    <row r="12" spans="1:7" ht="75">
       <c r="A12" s="8" t="s">
         <v>375</v>
       </c>
@@ -17827,14 +17961,14 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="315">
+    <row r="13" spans="1:7" ht="315">
       <c r="A13" s="8" t="s">
         <v>375</v>
       </c>
@@ -17847,14 +17981,14 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="61.5">
+    <row r="14" spans="1:7" ht="61.5">
       <c r="A14" s="8" t="s">
         <v>375</v>
       </c>
@@ -17867,14 +18001,14 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="135">
+    <row r="15" spans="1:7" ht="135">
       <c r="A15" s="8" t="s">
         <v>375</v>
       </c>
@@ -17887,14 +18021,14 @@
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="120">
+    <row r="16" spans="1:7" ht="120">
       <c r="A16" s="8" t="s">
         <v>375</v>
       </c>
@@ -17907,7 +18041,7 @@
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -17927,7 +18061,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -17947,7 +18081,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -17967,7 +18101,7 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -17987,7 +18121,7 @@
       <c r="D20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -18007,7 +18141,7 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -18024,10 +18158,10 @@
       <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>884</v>
       </c>
     </row>
@@ -18044,10 +18178,10 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>402</v>
       </c>
     </row>
@@ -18064,10 +18198,10 @@
       <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>404</v>
       </c>
     </row>
@@ -18084,10 +18218,10 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>406</v>
       </c>
     </row>
@@ -18104,10 +18238,10 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>408</v>
       </c>
     </row>
@@ -18124,10 +18258,10 @@
       <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>409</v>
       </c>
     </row>
@@ -18144,10 +18278,10 @@
       <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>421</v>
       </c>
     </row>
@@ -18164,10 +18298,10 @@
       <c r="D29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -18184,10 +18318,10 @@
       <c r="D30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="E30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -18204,10 +18338,10 @@
       <c r="D31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="26" t="s">
+      <c r="E31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>402</v>
       </c>
     </row>
@@ -18224,10 +18358,10 @@
       <c r="D32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>417</v>
       </c>
     </row>
@@ -18244,10 +18378,10 @@
       <c r="D33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="E33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>419</v>
       </c>
     </row>
@@ -18264,13 +18398,12 @@
       <c r="D34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="8" t="s">
@@ -18285,10 +18418,10 @@
       <c r="D35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -18305,10 +18438,10 @@
       <c r="D36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -18325,10 +18458,10 @@
       <c r="D37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="26" t="s">
+      <c r="E37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>885</v>
       </c>
     </row>
@@ -18345,10 +18478,10 @@
       <c r="D38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>425</v>
       </c>
     </row>
@@ -18356,36 +18489,36 @@
       <c r="A39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="26" t="s">
+      <c r="E39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="211.5">
+    <row r="40" spans="1:7" ht="226.5">
       <c r="A40" s="8" t="s">
         <v>432</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>433</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>887</v>
       </c>
     </row>
@@ -18396,19 +18529,18 @@
       <c r="B41" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>435</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="240">
       <c r="A42" s="8" t="s">
@@ -18417,38 +18549,39 @@
       <c r="B42" s="8">
         <v>3</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>437</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="26" t="s">
+      <c r="E42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="24" customFormat="1" ht="240">
+    <row r="43" spans="1:7" s="23" customFormat="1" ht="240">
       <c r="A43" s="8" t="s">
         <v>432</v>
       </c>
       <c r="B43" s="8">
         <v>4</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>506</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="E43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>438</v>
       </c>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="90">
       <c r="A44" s="8" t="s">
@@ -18457,16 +18590,16 @@
       <c r="B44" s="8">
         <v>5</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>440</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>439</v>
       </c>
     </row>
@@ -18474,19 +18607,19 @@
       <c r="A45" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="8">
         <v>6</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="29" t="s">
         <v>442</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="29" t="s">
+      <c r="E45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="30" t="s">
         <v>441</v>
       </c>
     </row>
@@ -18497,13 +18630,13 @@
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -18523,7 +18656,7 @@
       <c r="D47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -18543,7 +18676,7 @@
       <c r="D48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="19" t="s">
@@ -18563,13 +18696,12 @@
       <c r="D49" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="A50" s="8" t="s">
@@ -18584,7 +18716,7 @@
       <c r="D50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -18604,7 +18736,7 @@
       <c r="D51" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -18624,7 +18756,7 @@
       <c r="D52" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F52" s="19" t="s">
@@ -18644,14 +18776,14 @@
       <c r="D53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="135">
+    <row r="54" spans="1:7" ht="150">
       <c r="A54" s="8" t="s">
         <v>447</v>
       </c>
@@ -18664,7 +18796,7 @@
       <c r="D54" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -18684,7 +18816,7 @@
       <c r="D55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -18704,14 +18836,14 @@
       <c r="D56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="135">
+    <row r="57" spans="1:7" ht="150">
       <c r="A57" s="8" t="s">
         <v>458</v>
       </c>
@@ -18724,7 +18856,7 @@
       <c r="D57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -18744,14 +18876,14 @@
       <c r="D58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="240">
+    <row r="59" spans="1:7" ht="255">
       <c r="A59" s="8" t="s">
         <v>458</v>
       </c>
@@ -18764,7 +18896,7 @@
       <c r="D59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -18784,7 +18916,7 @@
       <c r="D60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -18804,7 +18936,7 @@
       <c r="D61" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -18825,7 +18957,7 @@
       <c r="D62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F62" s="19" t="s">
@@ -18845,7 +18977,7 @@
       <c r="D63" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="19" t="s">
@@ -18865,14 +18997,14 @@
       <c r="D64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="60">
+    <row r="65" spans="1:7" ht="60">
       <c r="A65" s="8" t="s">
         <v>480</v>
       </c>
@@ -18885,14 +19017,14 @@
       <c r="D65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="285">
+    <row r="66" spans="1:7" ht="285">
       <c r="A66" s="8" t="s">
         <v>480</v>
       </c>
@@ -18905,14 +19037,14 @@
       <c r="D66" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:7" ht="409.5">
       <c r="A67" s="8" t="s">
         <v>480</v>
       </c>
@@ -18925,14 +19057,14 @@
       <c r="D67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="225">
+    <row r="68" spans="1:7" ht="225">
       <c r="A68" s="8" t="s">
         <v>480</v>
       </c>
@@ -18945,14 +19077,14 @@
       <c r="D68" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="105">
+    <row r="69" spans="1:7" ht="105">
       <c r="A69" s="8" t="s">
         <v>480</v>
       </c>
@@ -18965,14 +19097,14 @@
       <c r="D69" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="60">
+    <row r="70" spans="1:7" ht="60">
       <c r="A70" s="8" t="s">
         <v>480</v>
       </c>
@@ -18985,14 +19117,14 @@
       <c r="D70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="409.5">
+    <row r="71" spans="1:7" ht="409.5">
       <c r="A71" s="8" t="s">
         <v>326</v>
       </c>
@@ -19002,1032 +19134,1041 @@
       <c r="D71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="76.5">
+    <row r="72" spans="1:7" ht="151.5">
       <c r="A72" s="8" t="s">
         <v>542</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="75">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:7" s="31" customFormat="1" ht="150">
+      <c r="A73" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D73" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="E73" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="76.5">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:7" s="31" customFormat="1" ht="166.5">
+      <c r="A74" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="C74" s="32" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="E74" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="76.5">
-      <c r="A75" s="8" t="s">
+      <c r="G74" s="32"/>
+    </row>
+    <row r="75" spans="1:7" s="31" customFormat="1" ht="166.5">
+      <c r="A75" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="C75" s="32" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D75" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="E75" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="32" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="76.5">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:7" s="31" customFormat="1" ht="166.5">
+      <c r="A76" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="C76" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D76" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="5" t="s">
+      <c r="E76" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="32" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="76.5">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:7" s="31" customFormat="1" ht="166.5">
+      <c r="A77" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="32" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D77" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" s="5" t="s">
+      <c r="E77" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="76.5">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:7" s="31" customFormat="1" ht="166.5">
+      <c r="A78" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C78" s="32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D78" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F78" s="5" t="s">
+      <c r="E78" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="76.5">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:7" s="31" customFormat="1" ht="166.5">
+      <c r="A79" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="32" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D79" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F79" s="5" t="s">
+      <c r="E79" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="91.5">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:7" s="31" customFormat="1" ht="181.5">
+      <c r="A80" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="32" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D80" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="91.5">
-      <c r="A81" s="8" t="s">
+      <c r="E80" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G80" s="32"/>
+    </row>
+    <row r="81" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A81" s="31" t="s">
         <v>627</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="C81" s="32" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D81" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E81" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="91.5">
-      <c r="A82" s="8" t="s">
+      <c r="E81" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A82" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="C82" s="32" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D82" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="91.5">
-      <c r="A83" s="8" t="s">
+      <c r="E82" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A83" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="32" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="32" t="s">
         <v>1210</v>
       </c>
-      <c r="D83" s="8" t="s">
+    </row>
+    <row r="84" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A84" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D84" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="91.5">
-      <c r="A84" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="E84" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A85" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D85" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="91.5">
-      <c r="A85" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="E85" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A86" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D86" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="91.5">
-      <c r="A86" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="E86" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A87" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D87" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="91.5">
-      <c r="A87" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="E87" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A88" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D88" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="91.5">
-      <c r="A88" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="E88" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A89" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D89" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="91.5">
-      <c r="A89" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="E89" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A90" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="91.5">
-      <c r="A90" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="E90" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A91" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="91.5">
-      <c r="A91" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A92" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D92" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="91.5">
-      <c r="A92" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="E92" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A93" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D93" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="91.5">
-      <c r="A93" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="E93" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A94" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D94" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="91.5">
-      <c r="A94" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="E94" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A95" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D95" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="91.5">
-      <c r="A95" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="E95" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A96" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D96" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E95" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="91.5">
-      <c r="A96" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A97" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D97" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E96" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="91.5">
-      <c r="A97" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A98" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D98" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="91.5">
-      <c r="A98" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A99" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D99" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="91.5">
-      <c r="A99" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="E99" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A100" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D100" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="91.5">
-      <c r="A100" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="E100" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A101" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D101" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E100" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="91.5">
-      <c r="A101" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A102" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D102" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="91.5">
-      <c r="A102" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="E102" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A103" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D103" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="91.5">
-      <c r="A103" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A104" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D104" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E103" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="91.5">
-      <c r="A104" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="E104" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A105" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D105" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E104" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="91.5">
-      <c r="A105" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="E105" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A106" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D106" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E105" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="91.5">
-      <c r="A106" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="E106" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A107" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D107" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E106" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="91.5">
-      <c r="A107" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A108" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D108" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E107" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="91.5">
-      <c r="A108" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="E108" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A109" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D109" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="91.5">
-      <c r="A109" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="E109" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A110" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D110" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E109" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="91.5">
-      <c r="A110" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="E110" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A111" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="91.5">
-      <c r="A111" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="31" customFormat="1" ht="181.5">
+      <c r="A112" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D112" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E111" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="91.5">
-      <c r="A112" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D112" s="8" t="s">
+      <c r="E112" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="31" customFormat="1" ht="181.5">
+      <c r="A113" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D113" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E112" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="91.5">
-      <c r="A113" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="31" customFormat="1" ht="181.5">
+      <c r="A114" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D114" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E113" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="91.5">
-      <c r="A114" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D114" s="8" t="s">
+      <c r="E114" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="31" customFormat="1" ht="181.5">
+      <c r="A115" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D115" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="91.5">
-      <c r="A115" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="31" customFormat="1" ht="151.5">
+      <c r="A116" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D116" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="76.5">
-      <c r="A116" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="31" customFormat="1" ht="151.5">
+      <c r="A117" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D117" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E116" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="76.5">
-      <c r="A117" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="G117" s="32"/>
+    </row>
+    <row r="118" spans="1:7" s="31" customFormat="1" ht="151.5">
+      <c r="A118" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D118" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E117" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="76.5">
-      <c r="A118" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D118" s="8" t="s">
+      <c r="E118" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>891</v>
+      </c>
+      <c r="G118" s="32"/>
+    </row>
+    <row r="119" spans="1:7" s="31" customFormat="1" ht="91.5">
+      <c r="A119" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D119" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E118" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="76.5">
-      <c r="A119" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="31" customFormat="1" ht="91.5">
+      <c r="A120" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D120" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E119" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F119" s="26" t="s">
+      <c r="E120" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="34" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="76.5">
-      <c r="A120" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D120" s="8" t="s">
+    <row r="121" spans="1:7" s="31" customFormat="1" ht="91.5">
+      <c r="A121" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D121" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F120" s="26" t="s">
+      <c r="E121" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="34" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="76.5">
-      <c r="A121" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D121" s="8" t="s">
+    <row r="122" spans="1:7" s="31" customFormat="1" ht="91.5">
+      <c r="A122" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F121" s="26" t="s">
+      <c r="E122" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="34" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="76.5">
-      <c r="A122" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D122" s="8" t="s">
+    <row r="123" spans="1:7" s="31" customFormat="1" ht="91.5">
+      <c r="A123" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D123" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E122" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F122" s="26" t="s">
+      <c r="E123" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="34" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="76.5">
-      <c r="A123" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D123" s="8" t="s">
+    <row r="124" spans="1:7" s="31" customFormat="1" ht="106.5">
+      <c r="A124" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D124" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E123" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F123" s="26" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="91.5">
-      <c r="A124" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="E124" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="31" customFormat="1" ht="106.5">
+      <c r="A125" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D125" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E124" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F124" s="26" t="s">
+      <c r="E125" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" s="34" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="61.5">
-      <c r="A125" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D125" s="8" t="s">
+    <row r="126" spans="1:7" s="31" customFormat="1" ht="106.5">
+      <c r="A126" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D126" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E125" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F125" s="26" t="s">
+      <c r="E126" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="34" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="91.5">
-      <c r="A126" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D126" s="8" t="s">
+      <c r="G126" s="32"/>
+    </row>
+    <row r="127" spans="1:7" s="31" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A127" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D127" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E126" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F126" s="26" t="s">
+      <c r="E127" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="34" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="109.5" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D127" s="8" t="s">
+      <c r="G127" s="32"/>
+    </row>
+    <row r="128" spans="1:7" s="31" customFormat="1" ht="90">
+      <c r="A128" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D128" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E127" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F127" s="26" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="60">
-      <c r="A128" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D128" s="8" t="s">
+      <c r="E128" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="G128" s="32"/>
+    </row>
+    <row r="129" spans="1:7" s="31" customFormat="1" ht="90">
+      <c r="A129" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D129" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="90">
-      <c r="A129" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D129" s="8" t="s">
+      <c r="E129" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="32" t="s">
+        <v>899</v>
+      </c>
+      <c r="G129" s="32"/>
+    </row>
+    <row r="130" spans="1:7" s="31" customFormat="1" ht="90">
+      <c r="A130" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D130" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E129" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="105">
-      <c r="A130" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D130" s="8" t="s">
+      <c r="E130" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="31" customFormat="1" ht="75">
+      <c r="A131" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D131" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E130" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="90">
-      <c r="A131" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F131" s="5" t="s">
+      <c r="E131" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="32" t="s">
         <v>901</v>
       </c>
+      <c r="G131" s="32"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F71">

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AAF553-3E4E-4FC2-B1C0-0C3C2BEDE9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D50C2E-F11D-46EF-89BA-E3D8C12B08BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="840" windowWidth="27150" windowHeight="13995" tabRatio="712" firstSheet="1" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="30210" yWindow="135" windowWidth="27150" windowHeight="13995" tabRatio="712" firstSheet="1" activeTab="7" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="1265">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -7751,6 +7751,9 @@
   </si>
   <si>
     <t>MD209e.png</t>
+  </si>
+  <si>
+    <t>BM</t>
   </si>
 </sst>
 </file>
@@ -8527,14 +8530,14 @@
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8582,14 +8585,14 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8637,14 +8640,14 @@
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8692,14 +8695,14 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8747,14 +8750,14 @@
       </c>
       <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8802,14 +8805,14 @@
       </c>
       <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8857,14 +8860,14 @@
       </c>
       <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8912,14 +8915,14 @@
       </c>
       <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8967,14 +8970,14 @@
       </c>
       <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -9022,12 +9025,12 @@
       </c>
       <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9075,14 +9078,14 @@
       </c>
       <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9130,14 +9133,14 @@
       </c>
       <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9185,14 +9188,14 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9240,14 +9243,14 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9291,14 +9294,14 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9346,14 +9349,14 @@
       </c>
       <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9401,14 +9404,14 @@
       </c>
       <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9456,14 +9459,14 @@
       </c>
       <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9511,14 +9514,14 @@
       </c>
       <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9566,14 +9569,14 @@
       </c>
       <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9621,14 +9624,14 @@
       </c>
       <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9676,14 +9679,14 @@
       </c>
       <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9731,14 +9734,14 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9786,14 +9789,14 @@
       </c>
       <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9841,14 +9844,14 @@
       </c>
       <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9896,14 +9899,14 @@
       </c>
       <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9951,14 +9954,14 @@
       </c>
       <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -9998,14 +10001,14 @@
       </c>
       <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10053,14 +10056,14 @@
       </c>
       <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -10108,14 +10111,14 @@
       </c>
       <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10163,14 +10166,14 @@
       </c>
       <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10218,14 +10221,14 @@
       </c>
       <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10273,14 +10276,14 @@
       </c>
       <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10328,14 +10331,14 @@
       </c>
       <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10383,14 +10386,14 @@
       </c>
       <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10438,14 +10441,14 @@
       </c>
       <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10493,14 +10496,14 @@
       </c>
       <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10546,14 +10549,14 @@
       </c>
       <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10601,14 +10604,14 @@
       </c>
       <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10656,14 +10659,14 @@
       </c>
       <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10708,14 +10711,14 @@
       </c>
       <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10763,14 +10766,14 @@
       </c>
       <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10818,14 +10821,14 @@
       </c>
       <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10873,14 +10876,14 @@
       </c>
       <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10928,14 +10931,14 @@
       </c>
       <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10983,14 +10986,14 @@
       </c>
       <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11038,14 +11041,14 @@
       </c>
       <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11093,14 +11096,14 @@
       </c>
       <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11146,14 +11149,14 @@
       </c>
       <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11201,14 +11204,14 @@
       </c>
       <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11256,14 +11259,14 @@
       </c>
       <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11311,14 +11314,14 @@
       </c>
       <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11366,14 +11369,14 @@
       </c>
       <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11421,14 +11424,14 @@
       </c>
       <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11476,14 +11479,14 @@
       </c>
       <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11531,14 +11534,14 @@
       </c>
       <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11586,14 +11589,14 @@
       </c>
       <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11641,14 +11644,14 @@
       </c>
       <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11696,14 +11699,14 @@
       </c>
       <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11751,14 +11754,14 @@
       </c>
       <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11806,14 +11809,14 @@
       </c>
       <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11859,14 +11862,14 @@
       </c>
       <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11914,14 +11917,14 @@
       </c>
       <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11969,11 +11972,11 @@
       </c>
       <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12021,14 +12024,14 @@
       </c>
       <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12076,14 +12079,14 @@
       </c>
       <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12131,14 +12134,14 @@
       </c>
       <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12186,14 +12189,14 @@
       </c>
       <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12241,14 +12244,14 @@
       </c>
       <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12296,14 +12299,14 @@
       </c>
       <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12351,14 +12354,14 @@
       </c>
       <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12406,14 +12409,14 @@
       </c>
       <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12461,14 +12464,14 @@
       </c>
       <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12516,14 +12519,14 @@
       </c>
       <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12571,14 +12574,14 @@
       </c>
       <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12626,14 +12629,14 @@
       </c>
       <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12681,14 +12684,14 @@
       </c>
       <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12736,14 +12739,14 @@
       </c>
       <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12791,14 +12794,14 @@
       </c>
       <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12846,14 +12849,14 @@
       </c>
       <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12901,14 +12904,14 @@
       </c>
       <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12950,14 +12953,14 @@
       </c>
       <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -13005,14 +13008,14 @@
       </c>
       <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -13060,14 +13063,14 @@
       </c>
       <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -13115,14 +13118,14 @@
       </c>
       <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13170,14 +13173,14 @@
       </c>
       <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13225,14 +13228,14 @@
       </c>
       <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13280,14 +13283,14 @@
       </c>
       <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13335,14 +13338,14 @@
       </c>
       <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13390,14 +13393,14 @@
       </c>
       <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13443,14 +13446,14 @@
       </c>
       <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13498,14 +13501,14 @@
       </c>
       <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13549,14 +13552,14 @@
       </c>
       <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13602,14 +13605,14 @@
       </c>
       <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>753</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.538465740741</v>
+        <v>45559.596918055555</v>
       </c>
     </row>
   </sheetData>
@@ -15326,7 +15329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C66609-5758-4067-9188-E18112A71DFE}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
       <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
@@ -20288,10 +20291,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B6858-2052-4C2F-91E5-028849CAB7F9}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20356,6 +20359,14 @@
         <v>952</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\240924\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE751DA-1E80-4429-A1B5-93BCD9B2D0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30CE4F-14A5-4E80-8ACE-B76426BA8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="1" activeTab="1" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="1260" yWindow="1020" windowWidth="27150" windowHeight="13995" tabRatio="712" activeTab="7" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1266">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -7751,6 +7751,12 @@
   </si>
   <si>
     <t>BM</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
 </sst>
 </file>
@@ -7948,7 +7954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8012,17 +8018,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8413,10 +8408,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3172BD-82A1-4B48-B576-8E07319DA0DE}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8538,14 +8533,14 @@
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8593,14 +8588,14 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8648,14 +8643,14 @@
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8703,14 +8698,14 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8758,14 +8753,14 @@
       </c>
       <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8813,14 +8808,14 @@
       </c>
       <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8868,14 +8863,14 @@
       </c>
       <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8923,14 +8918,14 @@
       </c>
       <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8978,14 +8973,14 @@
       </c>
       <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -9033,12 +9028,12 @@
       </c>
       <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9086,14 +9081,14 @@
       </c>
       <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9141,14 +9136,14 @@
       </c>
       <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9196,14 +9191,14 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9251,14 +9246,14 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9302,14 +9297,14 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9357,14 +9352,14 @@
       </c>
       <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9412,14 +9407,14 @@
       </c>
       <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9467,14 +9462,14 @@
       </c>
       <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9522,14 +9517,14 @@
       </c>
       <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9577,14 +9572,14 @@
       </c>
       <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9632,14 +9627,14 @@
       </c>
       <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9687,14 +9682,14 @@
       </c>
       <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9742,14 +9737,14 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9797,14 +9792,14 @@
       </c>
       <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9852,14 +9847,14 @@
       </c>
       <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9907,14 +9902,14 @@
       </c>
       <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9962,14 +9957,14 @@
       </c>
       <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10009,14 +10004,14 @@
       </c>
       <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10064,14 +10059,14 @@
       </c>
       <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -10119,14 +10114,14 @@
       </c>
       <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10174,14 +10169,14 @@
       </c>
       <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10229,14 +10224,14 @@
       </c>
       <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10284,14 +10279,14 @@
       </c>
       <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10339,14 +10334,14 @@
       </c>
       <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10394,14 +10389,14 @@
       </c>
       <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10449,14 +10444,14 @@
       </c>
       <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10504,14 +10499,14 @@
       </c>
       <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10557,14 +10552,14 @@
       </c>
       <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10612,14 +10607,14 @@
       </c>
       <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10667,14 +10662,14 @@
       </c>
       <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10719,14 +10714,14 @@
       </c>
       <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10774,14 +10769,14 @@
       </c>
       <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10829,14 +10824,14 @@
       </c>
       <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10884,14 +10879,14 @@
       </c>
       <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10939,14 +10934,14 @@
       </c>
       <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10994,14 +10989,14 @@
       </c>
       <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11049,14 +11044,14 @@
       </c>
       <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11104,14 +11099,14 @@
       </c>
       <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11157,14 +11152,14 @@
       </c>
       <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11212,14 +11207,14 @@
       </c>
       <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11267,14 +11262,14 @@
       </c>
       <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11322,14 +11317,14 @@
       </c>
       <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11377,14 +11372,14 @@
       </c>
       <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11432,14 +11427,14 @@
       </c>
       <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11487,14 +11482,14 @@
       </c>
       <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11542,14 +11537,14 @@
       </c>
       <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11597,14 +11592,14 @@
       </c>
       <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11652,14 +11647,14 @@
       </c>
       <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11707,14 +11702,14 @@
       </c>
       <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11762,14 +11757,14 @@
       </c>
       <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11817,14 +11812,14 @@
       </c>
       <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11870,14 +11865,14 @@
       </c>
       <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11925,14 +11920,14 @@
       </c>
       <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11980,11 +11975,11 @@
       </c>
       <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12032,14 +12027,14 @@
       </c>
       <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12087,14 +12082,14 @@
       </c>
       <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12142,14 +12137,14 @@
       </c>
       <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12197,14 +12192,14 @@
       </c>
       <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12252,14 +12247,14 @@
       </c>
       <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12307,14 +12302,14 @@
       </c>
       <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12362,14 +12357,14 @@
       </c>
       <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12417,14 +12412,14 @@
       </c>
       <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12472,14 +12467,14 @@
       </c>
       <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12527,14 +12522,14 @@
       </c>
       <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12582,14 +12577,14 @@
       </c>
       <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12637,14 +12632,14 @@
       </c>
       <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12692,14 +12687,14 @@
       </c>
       <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12747,14 +12742,14 @@
       </c>
       <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12802,14 +12797,14 @@
       </c>
       <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12857,14 +12852,14 @@
       </c>
       <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12912,14 +12907,14 @@
       </c>
       <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12963,14 +12958,14 @@
       </c>
       <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -13018,14 +13013,14 @@
       </c>
       <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -13073,14 +13068,14 @@
       </c>
       <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -13128,14 +13123,14 @@
       </c>
       <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13183,14 +13178,14 @@
       </c>
       <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13238,69 +13233,69 @@
       </c>
       <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="31" customFormat="1" ht="30">
-      <c r="A89" s="30">
+        <v>45560.60788275463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="30">
+      <c r="A89" s="5">
         <v>207</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C89" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="30" t="s">
+      <c r="C89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G89" s="30" t="s">
+      <c r="G89" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="H89" s="32" t="s">
+      <c r="H89" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="I89" s="30" t="s">
+      <c r="I89" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="J89" s="32" t="s">
+      <c r="J89" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L89" s="30" t="s">
+      <c r="K89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="M89" s="30" t="s">
+      <c r="M89" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="N89" s="30" t="s">
+      <c r="N89" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="O89" s="33">
+      <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
-      </c>
-      <c r="P89" s="30" t="s">
+        <v>45560.60788275463</v>
+      </c>
+      <c r="P89" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="Q89" s="33">
+      <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13348,14 +13343,14 @@
       </c>
       <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13403,14 +13398,14 @@
       </c>
       <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13456,14 +13451,14 @@
       </c>
       <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13511,14 +13506,14 @@
       </c>
       <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13562,14 +13557,14 @@
       </c>
       <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13615,14 +13610,14 @@
       </c>
       <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45559.58315416667</v>
+        <v>45560.60788275463</v>
       </c>
     </row>
   </sheetData>
@@ -16713,25 +16708,25 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="31" customFormat="1">
-      <c r="A112" s="29" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="30" t="s">
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="5" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="31" customFormat="1" ht="30">
-      <c r="A113" s="29" t="s">
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="30" t="s">
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="5" t="s">
         <v>338</v>
       </c>
     </row>
@@ -20301,10 +20296,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B6858-2052-4C2F-91E5-028849CAB7F9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20377,6 +20372,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\OGC\260924\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30CE4F-14A5-4E80-8ACE-B76426BA8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F69CBD-6249-499E-9350-CB1D9C23A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1020" windowWidth="27150" windowHeight="13995" tabRatio="712" activeTab="7" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="712" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="1267">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -7757,6 +7757,9 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>FT28_4</t>
   </si>
 </sst>
 </file>
@@ -8533,14 +8536,14 @@
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8588,14 +8591,14 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8643,14 +8646,14 @@
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8698,14 +8701,14 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8753,14 +8756,14 @@
       </c>
       <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8808,14 +8811,14 @@
       </c>
       <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8863,14 +8866,14 @@
       </c>
       <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8918,14 +8921,14 @@
       </c>
       <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8973,14 +8976,14 @@
       </c>
       <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -9028,12 +9031,12 @@
       </c>
       <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9081,14 +9084,14 @@
       </c>
       <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9136,14 +9139,14 @@
       </c>
       <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9191,14 +9194,14 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9246,14 +9249,14 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9297,14 +9300,14 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9352,14 +9355,14 @@
       </c>
       <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9407,14 +9410,14 @@
       </c>
       <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9462,14 +9465,14 @@
       </c>
       <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9517,14 +9520,14 @@
       </c>
       <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9572,14 +9575,14 @@
       </c>
       <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9627,14 +9630,14 @@
       </c>
       <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9682,14 +9685,14 @@
       </c>
       <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9737,14 +9740,14 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9792,14 +9795,14 @@
       </c>
       <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9847,14 +9850,14 @@
       </c>
       <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9902,14 +9905,14 @@
       </c>
       <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9957,14 +9960,14 @@
       </c>
       <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10004,14 +10007,14 @@
       </c>
       <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10059,14 +10062,14 @@
       </c>
       <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -10114,14 +10117,14 @@
       </c>
       <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10169,14 +10172,14 @@
       </c>
       <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10224,14 +10227,14 @@
       </c>
       <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10279,14 +10282,14 @@
       </c>
       <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10334,14 +10337,14 @@
       </c>
       <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10389,14 +10392,14 @@
       </c>
       <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10444,14 +10447,14 @@
       </c>
       <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10499,14 +10502,14 @@
       </c>
       <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10552,14 +10555,14 @@
       </c>
       <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10607,14 +10610,14 @@
       </c>
       <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10662,14 +10665,14 @@
       </c>
       <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10714,14 +10717,14 @@
       </c>
       <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10769,14 +10772,14 @@
       </c>
       <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10824,14 +10827,14 @@
       </c>
       <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10879,14 +10882,14 @@
       </c>
       <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10934,14 +10937,14 @@
       </c>
       <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10989,14 +10992,14 @@
       </c>
       <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11044,14 +11047,14 @@
       </c>
       <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11099,14 +11102,14 @@
       </c>
       <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11152,14 +11155,14 @@
       </c>
       <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11207,14 +11210,14 @@
       </c>
       <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11262,14 +11265,14 @@
       </c>
       <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11317,14 +11320,14 @@
       </c>
       <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11372,14 +11375,14 @@
       </c>
       <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11427,14 +11430,14 @@
       </c>
       <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11482,14 +11485,14 @@
       </c>
       <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11537,14 +11540,14 @@
       </c>
       <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11592,14 +11595,14 @@
       </c>
       <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11647,14 +11650,14 @@
       </c>
       <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11702,14 +11705,14 @@
       </c>
       <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11757,14 +11760,14 @@
       </c>
       <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11812,14 +11815,14 @@
       </c>
       <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11865,14 +11868,14 @@
       </c>
       <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11920,14 +11923,14 @@
       </c>
       <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11975,11 +11978,11 @@
       </c>
       <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12027,14 +12030,14 @@
       </c>
       <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12082,14 +12085,14 @@
       </c>
       <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12137,14 +12140,14 @@
       </c>
       <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12192,14 +12195,14 @@
       </c>
       <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12247,14 +12250,14 @@
       </c>
       <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12302,14 +12305,14 @@
       </c>
       <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12357,14 +12360,14 @@
       </c>
       <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12412,14 +12415,14 @@
       </c>
       <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12467,14 +12470,14 @@
       </c>
       <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12522,14 +12525,14 @@
       </c>
       <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12577,14 +12580,14 @@
       </c>
       <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12632,14 +12635,14 @@
       </c>
       <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12687,14 +12690,14 @@
       </c>
       <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12742,14 +12745,14 @@
       </c>
       <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12797,14 +12800,14 @@
       </c>
       <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12852,14 +12855,14 @@
       </c>
       <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12907,14 +12910,14 @@
       </c>
       <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12958,14 +12961,14 @@
       </c>
       <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -13013,14 +13016,14 @@
       </c>
       <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -13068,14 +13071,14 @@
       </c>
       <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -13123,14 +13126,14 @@
       </c>
       <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13178,14 +13181,14 @@
       </c>
       <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13233,14 +13236,14 @@
       </c>
       <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13288,14 +13291,14 @@
       </c>
       <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13343,14 +13346,14 @@
       </c>
       <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13398,14 +13401,14 @@
       </c>
       <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13451,14 +13454,14 @@
       </c>
       <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13506,14 +13509,14 @@
       </c>
       <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13557,14 +13560,14 @@
       </c>
       <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13610,14 +13613,14 @@
       </c>
       <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.394040393519</v>
       </c>
     </row>
   </sheetData>
@@ -15332,12 +15335,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C66609-5758-4067-9188-E18112A71DFE}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:XFD113"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16027,115 +16030,115 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="51">
       <c r="A58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="8">
+        <v>4</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18">
-      <c r="A59" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45">
+    <row r="60" spans="1:5" ht="18">
       <c r="A60" s="8" t="s">
         <v>352</v>
       </c>
       <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45">
+      <c r="A61" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="8">
         <v>2</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="63">
-      <c r="A61" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>843</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="63">
       <c r="A62" s="8" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="63">
       <c r="A63" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="E63" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="5" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="60">
-      <c r="A64" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30">
+    <row r="65" spans="1:6" ht="60">
       <c r="A65" s="8" t="s">
         <v>365</v>
       </c>
       <c r="B65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>374</v>
@@ -16146,11 +16149,11 @@
         <v>365</v>
       </c>
       <c r="B66" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>374</v>
@@ -16161,187 +16164,190 @@
         <v>365</v>
       </c>
       <c r="B67" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="30">
       <c r="A68" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B68" s="8"/>
+        <v>365</v>
+      </c>
+      <c r="B68" s="8">
+        <v>4</v>
+      </c>
       <c r="C68" s="8"/>
       <c r="D68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>844</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="120">
-      <c r="A69" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="120">
       <c r="A70" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="120">
       <c r="A71" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+        <v>401</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="E71" s="19" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F71" s="14"/>
+        <v>389</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="8"/>
+      <c r="E72" s="19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E73" s="19" t="s">
         <v>1162</v>
       </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" ht="90">
-      <c r="A73" s="8" t="s">
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="90">
+      <c r="A74" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="120">
-      <c r="A74" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="45">
+    </row>
+    <row r="75" spans="1:6" ht="120">
       <c r="A75" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="45">
+      <c r="A76" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="135">
-      <c r="A76" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
       <c r="D76" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="75">
+    <row r="77" spans="1:6" ht="135">
       <c r="A77" s="8" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
       <c r="D77" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="90">
+    <row r="78" spans="1:6" ht="75">
       <c r="A78" s="8" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
       <c r="D78" s="5" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>451</v>
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:6" ht="90">
       <c r="A79" s="8" t="s">
-        <v>815</v>
+        <v>464</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>840</v>
+        <v>451</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="30">
       <c r="A80" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
@@ -16351,105 +16357,106 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:5" ht="75">
+    <row r="81" spans="1:6" ht="30">
       <c r="A81" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="75">
+      <c r="A82" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="5" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="5" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="8" t="s">
+        <v>1257</v>
+      </c>
       <c r="D83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45">
       <c r="A84" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="8" t="s">
-        <v>1258</v>
-      </c>
+      <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="8" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="E86" s="5" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
-        <v>817</v>
+        <v>288</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -16458,31 +16465,31 @@
         <v>841</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
-        <v>339</v>
+        <v>818</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="5" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
-        <v>819</v>
+        <v>339</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="5" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -16491,9 +16498,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -16502,9 +16509,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -16513,9 +16520,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
-        <v>502</v>
+        <v>822</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -16524,953 +16531,949 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="81">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="5" t="s">
-        <v>495</v>
-      </c>
+      <c r="D97" s="8"/>
       <c r="E97" s="5" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="81">
       <c r="A98" s="8" t="s">
-        <v>502</v>
+        <v>323</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="5" t="s">
+        <v>495</v>
+      </c>
       <c r="E98" s="5" t="s">
-        <v>503</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="8" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>1106</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="5" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="8" t="s">
-        <v>828</v>
+        <v>316</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30">
       <c r="A102" s="8" t="s">
-        <v>305</v>
+        <v>828</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="8" t="s">
-        <v>1259</v>
-      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45">
       <c r="A103" s="8" t="s">
-        <v>829</v>
+        <v>305</v>
       </c>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>1259</v>
+      </c>
       <c r="D103" s="8"/>
       <c r="E103" s="5" t="s">
-        <v>1109</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30">
       <c r="A104" s="8" t="s">
-        <v>310</v>
+        <v>829</v>
       </c>
       <c r="B104" s="8"/>
-      <c r="C104" s="8" t="s">
-        <v>1260</v>
-      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
       <c r="A105" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>1260</v>
+      </c>
       <c r="D105" s="8"/>
       <c r="E105" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30">
       <c r="A106" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="5" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
       <c r="A107" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B107" s="8"/>
-      <c r="C107" s="8" t="s">
-        <v>1261</v>
-      </c>
+      <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>830</v>
+        <v>321</v>
       </c>
       <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>1261</v>
+      </c>
       <c r="D108" s="8"/>
       <c r="E108" s="5" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>329</v>
+        <v>830</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30">
       <c r="A110" s="8" t="s">
-        <v>831</v>
+        <v>329</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="5" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
-        <v>332</v>
+        <v>831</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="5" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30">
       <c r="A112" s="8" t="s">
-        <v>832</v>
+        <v>332</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="5" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
-        <v>337</v>
+        <v>832</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="6" customFormat="1">
-      <c r="A114" s="5" t="s">
-        <v>509</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30">
+      <c r="A114" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="8" t="s">
-        <v>513</v>
-      </c>
+      <c r="D114" s="8"/>
       <c r="E114" s="5" t="s">
-        <v>512</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1">
       <c r="A115" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="6" customFormat="1">
       <c r="A116" s="5" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1116</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>678</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="5" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="5" t="s">
-        <v>733</v>
+      <c r="D158" s="8" t="s">
+        <v>677</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>1122</v>
+        <v>712</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="8" t="s">
-        <v>728</v>
+      <c r="D161" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="5" t="s">
-        <v>748</v>
+      <c r="D166" s="8" t="s">
+        <v>732</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E170" s="5" t="s">
         <v>1133</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="45">
-      <c r="A170" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B170" s="8">
-        <v>1</v>
-      </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="45">
@@ -17478,14 +17481,14 @@
         <v>754</v>
       </c>
       <c r="B171" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45">
@@ -17493,214 +17496,231 @@
         <v>754</v>
       </c>
       <c r="B172" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="45">
+      <c r="A173" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B173" s="8">
+        <v>3</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="195">
-      <c r="A173" s="5" t="s">
+    <row r="174" spans="1:5" ht="195">
+      <c r="A174" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="D173" s="8"/>
-      <c r="E173" s="5" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30">
-      <c r="A174" s="5" t="s">
-        <v>787</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8" t="s">
-        <v>788</v>
+        <v>838</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="5" t="s">
-        <v>1166</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30">
       <c r="A175" s="5" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8" t="s">
-        <v>1262</v>
+        <v>788</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D176" s="8"/>
+      <c r="E176" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="75">
-      <c r="A176" s="5" t="s">
+    <row r="177" spans="1:5" ht="75">
+      <c r="A177" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30">
-      <c r="A177" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="D177" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="E177" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="30">
       <c r="A178" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="D178" s="8" t="s">
+        <v>783</v>
+      </c>
       <c r="E178" s="5" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="B179" s="8"/>
-      <c r="C179" s="8" t="s">
-        <v>833</v>
-      </c>
+      <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30">
       <c r="A180" s="5" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
+      <c r="C180" s="8" t="s">
+        <v>833</v>
+      </c>
       <c r="D180" s="8"/>
       <c r="E180" s="5" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="75">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="5" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="B181" s="8"/>
-      <c r="C181" s="8" t="s">
-        <v>835</v>
-      </c>
+      <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="5" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="20.25" customHeight="1">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="75">
       <c r="A182" s="5" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
+      <c r="C182" s="8" t="s">
+        <v>835</v>
+      </c>
       <c r="D182" s="8"/>
       <c r="E182" s="5" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="45">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="20.25" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="8" t="s">
-        <v>836</v>
-      </c>
+      <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="17" customFormat="1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="45">
       <c r="A184" s="5" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
+      <c r="C184" s="8" t="s">
+        <v>836</v>
+      </c>
       <c r="D184" s="8"/>
       <c r="E184" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="17" customFormat="1">
       <c r="A185" s="5" t="s">
-        <v>823</v>
+        <v>772</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="5" t="s">
-        <v>1167</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="5" t="s">
-        <v>1142</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="5" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="5" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -17716,7 +17736,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
       <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
@@ -20298,7 +20318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B6858-2052-4C2F-91E5-028849CAB7F9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30CE4F-14A5-4E80-8ACE-B76426BA8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E883CF-55E9-48BE-848B-F35B1E4F77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1020" windowWidth="27150" windowHeight="13995" tabRatio="712" activeTab="7" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="1260" yWindow="1020" windowWidth="27150" windowHeight="13995" tabRatio="712" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1267">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -7757,6 +7757,9 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>FT28_4</t>
   </si>
 </sst>
 </file>
@@ -8409,7 +8412,7 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -8510,9 +8513,7 @@
       <c r="G2" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>119</v>
-      </c>
+      <c r="H2" s="12"/>
       <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
@@ -8533,14 +8534,14 @@
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8588,14 +8589,14 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8643,14 +8644,14 @@
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8698,14 +8699,14 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8753,14 +8754,14 @@
       </c>
       <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8808,14 +8809,14 @@
       </c>
       <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8863,14 +8864,14 @@
       </c>
       <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8918,14 +8919,14 @@
       </c>
       <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8973,14 +8974,14 @@
       </c>
       <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -9028,12 +9029,12 @@
       </c>
       <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9081,14 +9082,14 @@
       </c>
       <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9136,14 +9137,14 @@
       </c>
       <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9191,14 +9192,14 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9246,14 +9247,14 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9297,14 +9298,14 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9352,14 +9353,14 @@
       </c>
       <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9407,14 +9408,14 @@
       </c>
       <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9462,14 +9463,14 @@
       </c>
       <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9517,14 +9518,14 @@
       </c>
       <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9572,14 +9573,14 @@
       </c>
       <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9627,14 +9628,14 @@
       </c>
       <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9682,14 +9683,14 @@
       </c>
       <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9737,14 +9738,14 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9792,14 +9793,14 @@
       </c>
       <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9847,14 +9848,14 @@
       </c>
       <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9902,14 +9903,14 @@
       </c>
       <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9957,14 +9958,14 @@
       </c>
       <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10004,14 +10005,14 @@
       </c>
       <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10059,14 +10060,14 @@
       </c>
       <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -10114,14 +10115,14 @@
       </c>
       <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10169,14 +10170,14 @@
       </c>
       <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10224,14 +10225,14 @@
       </c>
       <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10279,14 +10280,14 @@
       </c>
       <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10334,14 +10335,14 @@
       </c>
       <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10389,14 +10390,14 @@
       </c>
       <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10444,14 +10445,14 @@
       </c>
       <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10499,14 +10500,14 @@
       </c>
       <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10552,14 +10553,14 @@
       </c>
       <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10607,14 +10608,14 @@
       </c>
       <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10662,14 +10663,14 @@
       </c>
       <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10714,14 +10715,14 @@
       </c>
       <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10769,14 +10770,14 @@
       </c>
       <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10824,14 +10825,14 @@
       </c>
       <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10879,14 +10880,14 @@
       </c>
       <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10934,14 +10935,14 @@
       </c>
       <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10989,14 +10990,14 @@
       </c>
       <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11044,14 +11045,14 @@
       </c>
       <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11099,14 +11100,14 @@
       </c>
       <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11152,14 +11153,14 @@
       </c>
       <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11207,14 +11208,14 @@
       </c>
       <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11262,14 +11263,14 @@
       </c>
       <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11317,14 +11318,14 @@
       </c>
       <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11372,14 +11373,14 @@
       </c>
       <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11427,14 +11428,14 @@
       </c>
       <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11482,14 +11483,14 @@
       </c>
       <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11537,14 +11538,14 @@
       </c>
       <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11592,14 +11593,14 @@
       </c>
       <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11647,14 +11648,14 @@
       </c>
       <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11702,14 +11703,14 @@
       </c>
       <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11757,14 +11758,14 @@
       </c>
       <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11812,14 +11813,14 @@
       </c>
       <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11865,14 +11866,14 @@
       </c>
       <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11920,14 +11921,14 @@
       </c>
       <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11975,11 +11976,11 @@
       </c>
       <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12027,14 +12028,14 @@
       </c>
       <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12082,14 +12083,14 @@
       </c>
       <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12137,14 +12138,14 @@
       </c>
       <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12192,14 +12193,14 @@
       </c>
       <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12247,14 +12248,14 @@
       </c>
       <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12302,14 +12303,14 @@
       </c>
       <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12357,14 +12358,14 @@
       </c>
       <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12412,14 +12413,14 @@
       </c>
       <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12467,14 +12468,14 @@
       </c>
       <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12522,14 +12523,14 @@
       </c>
       <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12577,14 +12578,14 @@
       </c>
       <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12632,14 +12633,14 @@
       </c>
       <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12687,14 +12688,14 @@
       </c>
       <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12742,14 +12743,14 @@
       </c>
       <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12797,14 +12798,14 @@
       </c>
       <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12852,14 +12853,14 @@
       </c>
       <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12907,14 +12908,14 @@
       </c>
       <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12958,14 +12959,14 @@
       </c>
       <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -13013,14 +13014,14 @@
       </c>
       <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -13068,14 +13069,14 @@
       </c>
       <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -13123,14 +13124,14 @@
       </c>
       <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13178,14 +13179,14 @@
       </c>
       <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13233,14 +13234,14 @@
       </c>
       <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13288,14 +13289,14 @@
       </c>
       <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13343,14 +13344,14 @@
       </c>
       <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13398,14 +13399,14 @@
       </c>
       <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13451,14 +13452,14 @@
       </c>
       <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13506,14 +13507,14 @@
       </c>
       <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13557,14 +13558,14 @@
       </c>
       <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13610,14 +13611,14 @@
       </c>
       <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45560.60788275463</v>
+        <v>45561.47881458333</v>
       </c>
     </row>
   </sheetData>
@@ -15332,12 +15333,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C66609-5758-4067-9188-E18112A71DFE}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:XFD113"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16027,115 +16028,115 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="51">
       <c r="A58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="8">
+        <v>4</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18">
-      <c r="A59" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45">
+    <row r="60" spans="1:5" ht="18">
       <c r="A60" s="8" t="s">
         <v>352</v>
       </c>
       <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45">
+      <c r="A61" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="8">
         <v>2</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="63">
-      <c r="A61" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>843</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="63">
       <c r="A62" s="8" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="63">
       <c r="A63" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="E63" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="5" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="60">
-      <c r="A64" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30">
+    <row r="65" spans="1:6" ht="60">
       <c r="A65" s="8" t="s">
         <v>365</v>
       </c>
       <c r="B65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>374</v>
@@ -16146,11 +16147,11 @@
         <v>365</v>
       </c>
       <c r="B66" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>374</v>
@@ -16161,187 +16162,190 @@
         <v>365</v>
       </c>
       <c r="B67" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="30">
       <c r="A68" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B68" s="8"/>
+        <v>365</v>
+      </c>
+      <c r="B68" s="8">
+        <v>4</v>
+      </c>
       <c r="C68" s="8"/>
       <c r="D68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>844</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="120">
-      <c r="A69" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="120">
       <c r="A70" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="120">
       <c r="A71" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+        <v>401</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="E71" s="19" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F71" s="14"/>
+        <v>389</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="8"/>
+      <c r="E72" s="19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E73" s="19" t="s">
         <v>1162</v>
       </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" ht="90">
-      <c r="A73" s="8" t="s">
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="90">
+      <c r="A74" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="120">
-      <c r="A74" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="45">
+    </row>
+    <row r="75" spans="1:6" ht="120">
       <c r="A75" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="45">
+      <c r="A76" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="135">
-      <c r="A76" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
       <c r="D76" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="75">
+    <row r="77" spans="1:6" ht="135">
       <c r="A77" s="8" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
       <c r="D77" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="90">
+    <row r="78" spans="1:6" ht="75">
       <c r="A78" s="8" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
       <c r="D78" s="5" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>451</v>
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:6" ht="90">
       <c r="A79" s="8" t="s">
-        <v>815</v>
+        <v>464</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>840</v>
+        <v>451</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="30">
       <c r="A80" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
@@ -16351,105 +16355,106 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:5" ht="75">
+    <row r="81" spans="1:6" ht="30">
       <c r="A81" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="75">
+      <c r="A82" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="5" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="5" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="8" t="s">
+        <v>1257</v>
+      </c>
       <c r="D83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45">
       <c r="A84" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="8" t="s">
-        <v>1258</v>
-      </c>
+      <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="8" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="E86" s="5" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
-        <v>817</v>
+        <v>288</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -16458,31 +16463,31 @@
         <v>841</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
-        <v>339</v>
+        <v>818</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="5" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
-        <v>819</v>
+        <v>339</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="5" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -16491,9 +16496,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -16502,9 +16507,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -16513,9 +16518,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
-        <v>502</v>
+        <v>822</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -16524,953 +16529,949 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="81">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="5" t="s">
-        <v>495</v>
-      </c>
+      <c r="D97" s="8"/>
       <c r="E97" s="5" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="81">
       <c r="A98" s="8" t="s">
-        <v>502</v>
+        <v>323</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="5" t="s">
+        <v>495</v>
+      </c>
       <c r="E98" s="5" t="s">
-        <v>503</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="8" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>1106</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="5" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="8" t="s">
-        <v>828</v>
+        <v>316</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30">
       <c r="A102" s="8" t="s">
-        <v>305</v>
+        <v>828</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="8" t="s">
-        <v>1259</v>
-      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45">
       <c r="A103" s="8" t="s">
-        <v>829</v>
+        <v>305</v>
       </c>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>1259</v>
+      </c>
       <c r="D103" s="8"/>
       <c r="E103" s="5" t="s">
-        <v>1109</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30">
       <c r="A104" s="8" t="s">
-        <v>310</v>
+        <v>829</v>
       </c>
       <c r="B104" s="8"/>
-      <c r="C104" s="8" t="s">
-        <v>1260</v>
-      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
       <c r="A105" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>1260</v>
+      </c>
       <c r="D105" s="8"/>
       <c r="E105" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30">
       <c r="A106" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="5" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
       <c r="A107" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B107" s="8"/>
-      <c r="C107" s="8" t="s">
-        <v>1261</v>
-      </c>
+      <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>830</v>
+        <v>321</v>
       </c>
       <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>1261</v>
+      </c>
       <c r="D108" s="8"/>
       <c r="E108" s="5" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>329</v>
+        <v>830</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30">
       <c r="A110" s="8" t="s">
-        <v>831</v>
+        <v>329</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="5" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
-        <v>332</v>
+        <v>831</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="5" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30">
       <c r="A112" s="8" t="s">
-        <v>832</v>
+        <v>332</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="5" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
-        <v>337</v>
+        <v>832</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="6" customFormat="1">
-      <c r="A114" s="5" t="s">
-        <v>509</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30">
+      <c r="A114" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="8" t="s">
-        <v>513</v>
-      </c>
+      <c r="D114" s="8"/>
       <c r="E114" s="5" t="s">
-        <v>512</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1">
       <c r="A115" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="6" customFormat="1">
       <c r="A116" s="5" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1116</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>678</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="5" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="5" t="s">
-        <v>733</v>
+      <c r="D158" s="8" t="s">
+        <v>677</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>1122</v>
+        <v>712</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="8" t="s">
-        <v>728</v>
+      <c r="D161" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="5" t="s">
-        <v>748</v>
+      <c r="D166" s="8" t="s">
+        <v>732</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E170" s="5" t="s">
         <v>1133</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="45">
-      <c r="A170" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B170" s="8">
-        <v>1</v>
-      </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="45">
@@ -17478,14 +17479,14 @@
         <v>754</v>
       </c>
       <c r="B171" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45">
@@ -17493,214 +17494,231 @@
         <v>754</v>
       </c>
       <c r="B172" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="45">
+      <c r="A173" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B173" s="8">
+        <v>3</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="195">
-      <c r="A173" s="5" t="s">
+    <row r="174" spans="1:5" ht="195">
+      <c r="A174" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="D173" s="8"/>
-      <c r="E173" s="5" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30">
-      <c r="A174" s="5" t="s">
-        <v>787</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8" t="s">
-        <v>788</v>
+        <v>838</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="5" t="s">
-        <v>1166</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30">
       <c r="A175" s="5" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8" t="s">
-        <v>1262</v>
+        <v>788</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D176" s="8"/>
+      <c r="E176" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="75">
-      <c r="A176" s="5" t="s">
+    <row r="177" spans="1:5" ht="75">
+      <c r="A177" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30">
-      <c r="A177" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="D177" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="E177" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="30">
       <c r="A178" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="D178" s="8" t="s">
+        <v>783</v>
+      </c>
       <c r="E178" s="5" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="B179" s="8"/>
-      <c r="C179" s="8" t="s">
-        <v>833</v>
-      </c>
+      <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30">
       <c r="A180" s="5" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
+      <c r="C180" s="8" t="s">
+        <v>833</v>
+      </c>
       <c r="D180" s="8"/>
       <c r="E180" s="5" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="75">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="5" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="B181" s="8"/>
-      <c r="C181" s="8" t="s">
-        <v>835</v>
-      </c>
+      <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="5" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="20.25" customHeight="1">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="75">
       <c r="A182" s="5" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
+      <c r="C182" s="8" t="s">
+        <v>835</v>
+      </c>
       <c r="D182" s="8"/>
       <c r="E182" s="5" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="45">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="20.25" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="8" t="s">
-        <v>836</v>
-      </c>
+      <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="17" customFormat="1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="45">
       <c r="A184" s="5" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
+      <c r="C184" s="8" t="s">
+        <v>836</v>
+      </c>
       <c r="D184" s="8"/>
       <c r="E184" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="17" customFormat="1">
       <c r="A185" s="5" t="s">
-        <v>823</v>
+        <v>772</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="5" t="s">
-        <v>1167</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="5" t="s">
-        <v>1142</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="5" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="5" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -20298,7 +20316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B6858-2052-4C2F-91E5-028849CAB7F9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ogc\iso1957-3-dqm-register\ISO19157-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E883CF-55E9-48BE-848B-F35B1E4F77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811C3A0-BC87-433C-8DA9-64A3AA1D15BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1020" windowWidth="27150" windowHeight="13995" tabRatio="712" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="960" yWindow="1020" windowWidth="27150" windowHeight="13995" tabRatio="712" activeTab="7" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1269">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -7760,6 +7760,12 @@
   </si>
   <si>
     <t>FT28_4</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference Sources</t>
   </si>
 </sst>
 </file>
@@ -8534,14 +8540,14 @@
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8589,14 +8595,14 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8644,14 +8650,14 @@
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8699,14 +8705,14 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8754,14 +8760,14 @@
       </c>
       <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8809,14 +8815,14 @@
       </c>
       <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8864,14 +8870,14 @@
       </c>
       <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8919,14 +8925,14 @@
       </c>
       <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8974,14 +8980,14 @@
       </c>
       <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -9029,12 +9035,12 @@
       </c>
       <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9082,14 +9088,14 @@
       </c>
       <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9137,14 +9143,14 @@
       </c>
       <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9192,14 +9198,14 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9247,14 +9253,14 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9298,14 +9304,14 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9353,14 +9359,14 @@
       </c>
       <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9408,14 +9414,14 @@
       </c>
       <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9463,14 +9469,14 @@
       </c>
       <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9518,14 +9524,14 @@
       </c>
       <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9573,14 +9579,14 @@
       </c>
       <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9628,14 +9634,14 @@
       </c>
       <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9683,14 +9689,14 @@
       </c>
       <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9738,14 +9744,14 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9793,14 +9799,14 @@
       </c>
       <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9848,14 +9854,14 @@
       </c>
       <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9903,14 +9909,14 @@
       </c>
       <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9958,14 +9964,14 @@
       </c>
       <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10005,14 +10011,14 @@
       </c>
       <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10060,14 +10066,14 @@
       </c>
       <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -10115,14 +10121,14 @@
       </c>
       <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10170,14 +10176,14 @@
       </c>
       <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10225,14 +10231,14 @@
       </c>
       <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10280,14 +10286,14 @@
       </c>
       <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10335,14 +10341,14 @@
       </c>
       <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10390,14 +10396,14 @@
       </c>
       <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10445,14 +10451,14 @@
       </c>
       <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10500,14 +10506,14 @@
       </c>
       <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10553,14 +10559,14 @@
       </c>
       <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10608,14 +10614,14 @@
       </c>
       <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10663,14 +10669,14 @@
       </c>
       <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10715,14 +10721,14 @@
       </c>
       <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10770,14 +10776,14 @@
       </c>
       <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10825,14 +10831,14 @@
       </c>
       <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10880,14 +10886,14 @@
       </c>
       <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10935,14 +10941,14 @@
       </c>
       <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10990,14 +10996,14 @@
       </c>
       <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11045,14 +11051,14 @@
       </c>
       <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11100,14 +11106,14 @@
       </c>
       <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11153,14 +11159,14 @@
       </c>
       <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11208,14 +11214,14 @@
       </c>
       <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11263,14 +11269,14 @@
       </c>
       <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11318,14 +11324,14 @@
       </c>
       <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11373,14 +11379,14 @@
       </c>
       <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11428,14 +11434,14 @@
       </c>
       <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11483,14 +11489,14 @@
       </c>
       <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11538,14 +11544,14 @@
       </c>
       <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11593,14 +11599,14 @@
       </c>
       <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11648,14 +11654,14 @@
       </c>
       <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11703,14 +11709,14 @@
       </c>
       <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11758,14 +11764,14 @@
       </c>
       <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11813,14 +11819,14 @@
       </c>
       <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11866,14 +11872,14 @@
       </c>
       <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11921,14 +11927,14 @@
       </c>
       <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11976,11 +11982,11 @@
       </c>
       <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12028,14 +12034,14 @@
       </c>
       <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12083,14 +12089,14 @@
       </c>
       <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12138,14 +12144,14 @@
       </c>
       <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12193,14 +12199,14 @@
       </c>
       <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12248,14 +12254,14 @@
       </c>
       <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12303,14 +12309,14 @@
       </c>
       <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12358,14 +12364,14 @@
       </c>
       <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12413,14 +12419,14 @@
       </c>
       <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12468,14 +12474,14 @@
       </c>
       <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12523,14 +12529,14 @@
       </c>
       <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12578,14 +12584,14 @@
       </c>
       <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12633,14 +12639,14 @@
       </c>
       <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12688,14 +12694,14 @@
       </c>
       <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12743,14 +12749,14 @@
       </c>
       <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12798,14 +12804,14 @@
       </c>
       <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12853,14 +12859,14 @@
       </c>
       <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12908,14 +12914,14 @@
       </c>
       <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12959,14 +12965,14 @@
       </c>
       <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -13014,14 +13020,14 @@
       </c>
       <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -13069,14 +13075,14 @@
       </c>
       <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -13124,14 +13130,14 @@
       </c>
       <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13179,14 +13185,14 @@
       </c>
       <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13234,14 +13240,14 @@
       </c>
       <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13289,14 +13295,14 @@
       </c>
       <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13344,14 +13350,14 @@
       </c>
       <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13399,14 +13405,14 @@
       </c>
       <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13452,14 +13458,14 @@
       </c>
       <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13507,14 +13513,14 @@
       </c>
       <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13558,14 +13564,14 @@
       </c>
       <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13611,14 +13617,14 @@
       </c>
       <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>752</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45561.47881458333</v>
+        <v>45561.493416087964</v>
       </c>
     </row>
   </sheetData>
@@ -15335,7 +15341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C66609-5758-4067-9188-E18112A71DFE}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
       <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
@@ -20314,10 +20320,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B6858-2052-4C2F-91E5-028849CAB7F9}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20398,6 +20404,14 @@
         <v>1265</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISO19157-3/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3/ISO19157-3_DQM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\CD\resolved_CD_comments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\CD\register_resolved_CD_comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665AEBAE-FFD6-4D45-93E3-80BB4D4FECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E18DD-642E-469C-B024-47152B085E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="712" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="1269">
   <si>
     <t>number of duplicate feature instances</t>
   </si>
@@ -2407,9 +2407,6 @@
     <t>SR5</t>
   </si>
   <si>
-    <t>MD2bme</t>
-  </si>
-  <si>
     <t>Boolean value expressing the item is indicated an error.</t>
   </si>
   <si>
@@ -2432,9 +2429,6 @@
   </si>
   <si>
     <t>MD8</t>
-  </si>
-  <si>
-    <t>MDbm4</t>
   </si>
   <si>
     <t>FT208_P</t>
@@ -6515,9 +6509,6 @@
   </si>
   <si>
     <t>True (One feature relationship exists which is not defined in the conceptual schema).</t>
-  </si>
-  <si>
-    <t>Boolean value expressing the item is not indicated as an error.</t>
   </si>
   <si>
     <t>True indicates that an item is in compliance with the rules of the conceptual schema.</t>
@@ -8452,9 +8443,9 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomLeft" activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8480,7 +8471,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="45">
       <c r="A1" s="20" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>46</v>
@@ -8492,10 +8483,10 @@
         <v>48</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>49</v>
@@ -8513,22 +8504,22 @@
         <v>52</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>53</v>
       </c>
       <c r="N1" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="O1" s="22" t="s">
-        <v>853</v>
-      </c>
       <c r="P1" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8545,15 +8536,17 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>909</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
@@ -8574,14 +8567,14 @@
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O33" ca="1" si="0">NOW()</f>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q65" ca="1" si="1">NOW()</f>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30">
@@ -8598,16 +8591,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>1</v>
@@ -8629,14 +8622,14 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="45">
@@ -8653,16 +8646,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>1</v>
@@ -8684,14 +8677,14 @@
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="178.5" customHeight="1">
@@ -8708,13 +8701,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>81</v>
@@ -8739,14 +8732,14 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="27">
         <f ca="1">NOW()</f>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="30">
@@ -8763,13 +8756,13 @@
         <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>129</v>
@@ -8794,14 +8787,14 @@
       </c>
       <c r="O6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -8818,16 +8811,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>1</v>
@@ -8849,14 +8842,14 @@
       </c>
       <c r="O7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="46.5" customHeight="1">
@@ -8873,16 +8866,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>1</v>
@@ -8904,14 +8897,14 @@
       </c>
       <c r="O8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8928,16 +8921,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>1</v>
@@ -8959,14 +8952,14 @@
       </c>
       <c r="O9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="33.6" customHeight="1">
@@ -8983,16 +8976,16 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>1</v>
@@ -9014,14 +9007,14 @@
       </c>
       <c r="O10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -9029,7 +9022,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -9038,13 +9031,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>125</v>
@@ -9069,12 +9062,12 @@
       </c>
       <c r="O11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9091,13 +9084,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>126</v>
@@ -9122,14 +9115,14 @@
       </c>
       <c r="O12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9146,13 +9139,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>127</v>
@@ -9177,14 +9170,14 @@
       </c>
       <c r="O13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9201,16 +9194,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>335</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>1</v>
@@ -9232,14 +9225,14 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9256,13 +9249,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>128</v>
@@ -9287,14 +9280,14 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9311,16 +9304,16 @@
         <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>1</v>
@@ -9338,14 +9331,14 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9362,16 +9355,16 @@
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>1</v>
@@ -9393,14 +9386,14 @@
       </c>
       <c r="O17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9417,16 +9410,16 @@
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>335</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>1</v>
@@ -9448,14 +9441,14 @@
       </c>
       <c r="O18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9472,16 +9465,16 @@
         <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>1</v>
@@ -9503,14 +9496,14 @@
       </c>
       <c r="O19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9527,16 +9520,16 @@
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>1</v>
@@ -9558,14 +9551,14 @@
       </c>
       <c r="O20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="60">
@@ -9582,16 +9575,16 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>1</v>
@@ -9613,14 +9606,14 @@
       </c>
       <c r="O21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9637,13 +9630,13 @@
         <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>146</v>
@@ -9668,14 +9661,14 @@
       </c>
       <c r="O22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9692,13 +9685,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>149</v>
@@ -9723,14 +9716,14 @@
       </c>
       <c r="O23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9747,16 +9740,16 @@
         <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>154</v>
@@ -9778,14 +9771,14 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="45">
@@ -9802,16 +9795,16 @@
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>160</v>
@@ -9833,14 +9826,14 @@
       </c>
       <c r="O25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9857,13 +9850,13 @@
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>167</v>
@@ -9878,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>168</v>
@@ -9888,14 +9881,14 @@
       </c>
       <c r="O26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9912,16 +9905,16 @@
         <v>22</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>1</v>
@@ -9943,14 +9936,14 @@
       </c>
       <c r="O27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30">
@@ -9967,16 +9960,16 @@
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>1</v>
@@ -9998,14 +9991,14 @@
       </c>
       <c r="O28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10022,13 +10015,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>340</v>
@@ -10045,14 +10038,14 @@
       </c>
       <c r="O29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="90">
@@ -10069,13 +10062,13 @@
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>346</v>
@@ -10100,14 +10093,14 @@
       </c>
       <c r="O30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="90">
@@ -10124,13 +10117,13 @@
         <v>26</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>347</v>
@@ -10155,14 +10148,14 @@
       </c>
       <c r="O31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="120">
@@ -10179,13 +10172,13 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>349</v>
@@ -10210,14 +10203,14 @@
       </c>
       <c r="O32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="60">
@@ -10234,13 +10227,13 @@
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>352</v>
@@ -10265,14 +10258,14 @@
       </c>
       <c r="O33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10289,16 +10282,16 @@
         <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>182</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>1</v>
@@ -10320,14 +10313,14 @@
       </c>
       <c r="O34" s="27">
         <f t="shared" ref="O34:O65" ca="1" si="2">NOW()</f>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10344,16 +10337,16 @@
         <v>26</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>1</v>
@@ -10375,14 +10368,14 @@
       </c>
       <c r="O35" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10399,16 +10392,16 @@
         <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>194</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>189</v>
@@ -10430,14 +10423,14 @@
       </c>
       <c r="O36" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10454,16 +10447,16 @@
         <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>196</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>190</v>
@@ -10485,14 +10478,14 @@
       </c>
       <c r="O37" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10509,16 +10502,16 @@
         <v>26</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>200</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>191</v>
@@ -10540,14 +10533,14 @@
       </c>
       <c r="O38" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10562,16 +10555,16 @@
         <v>26</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>202</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>203</v>
@@ -10593,14 +10586,14 @@
       </c>
       <c r="O39" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="30">
@@ -10617,13 +10610,13 @@
         <v>26</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>372</v>
@@ -10648,14 +10641,14 @@
       </c>
       <c r="O40" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10672,13 +10665,13 @@
         <v>26</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>374</v>
@@ -10703,14 +10696,14 @@
       </c>
       <c r="O41" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="75">
@@ -10727,13 +10720,13 @@
         <v>26</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>386</v>
@@ -10755,14 +10748,14 @@
       </c>
       <c r="O42" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="105">
@@ -10779,13 +10772,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>206</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>695</v>
@@ -10810,14 +10803,14 @@
       </c>
       <c r="O43" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10834,13 +10827,13 @@
         <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>209</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>695</v>
@@ -10865,14 +10858,14 @@
       </c>
       <c r="O44" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="75">
@@ -10889,13 +10882,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>695</v>
@@ -10920,14 +10913,14 @@
       </c>
       <c r="O45" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10944,13 +10937,13 @@
         <v>26</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>218</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>695</v>
@@ -10975,14 +10968,14 @@
       </c>
       <c r="O46" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="45">
@@ -10999,13 +10992,13 @@
         <v>26</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>695</v>
@@ -11030,14 +11023,14 @@
       </c>
       <c r="O47" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11054,13 +11047,13 @@
         <v>26</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>396</v>
@@ -11085,14 +11078,14 @@
       </c>
       <c r="O48" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11109,13 +11102,13 @@
         <v>26</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>398</v>
@@ -11140,14 +11133,14 @@
       </c>
       <c r="O49" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11164,13 +11157,13 @@
         <v>26</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>85</v>
@@ -11193,14 +11186,14 @@
       </c>
       <c r="O50" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11217,13 +11210,13 @@
         <v>26</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>409</v>
@@ -11248,14 +11241,14 @@
       </c>
       <c r="O51" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="60">
@@ -11272,13 +11265,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>418</v>
@@ -11303,14 +11296,14 @@
       </c>
       <c r="O52" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="90">
@@ -11327,13 +11320,13 @@
         <v>250</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>425</v>
@@ -11358,14 +11351,14 @@
       </c>
       <c r="O53" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" ht="60">
@@ -11382,13 +11375,13 @@
         <v>250</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>438</v>
@@ -11413,14 +11406,14 @@
       </c>
       <c r="O54" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11437,16 +11430,16 @@
         <v>30</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>254</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>1</v>
@@ -11468,14 +11461,14 @@
       </c>
       <c r="O55" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11492,16 +11485,16 @@
         <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>182</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>1</v>
@@ -11523,14 +11516,14 @@
       </c>
       <c r="O56" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11547,16 +11540,16 @@
         <v>30</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>257</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>189</v>
@@ -11578,14 +11571,14 @@
       </c>
       <c r="O57" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11602,16 +11595,16 @@
         <v>30</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>259</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>189</v>
@@ -11633,14 +11626,14 @@
       </c>
       <c r="O58" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11657,16 +11650,16 @@
         <v>30</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>261</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>189</v>
@@ -11688,14 +11681,14 @@
       </c>
       <c r="O59" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" ht="105">
@@ -11712,16 +11705,16 @@
         <v>30</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>1</v>
@@ -11743,14 +11736,14 @@
       </c>
       <c r="O60" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11767,16 +11760,16 @@
         <v>33</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>1</v>
@@ -11798,14 +11791,14 @@
       </c>
       <c r="O61" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11822,16 +11815,16 @@
         <v>33</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>1</v>
@@ -11853,14 +11846,14 @@
       </c>
       <c r="O62" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="30">
@@ -11877,13 +11870,13 @@
         <v>33</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>84</v>
@@ -11906,14 +11899,14 @@
       </c>
       <c r="O63" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" ht="45">
@@ -11930,13 +11923,13 @@
         <v>33</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>266</v>
@@ -11961,14 +11954,14 @@
       </c>
       <c r="O64" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="45">
@@ -11985,13 +11978,13 @@
         <v>33</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>275</v>
@@ -12016,11 +12009,11 @@
       </c>
       <c r="O65" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12037,13 +12030,13 @@
         <v>278</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>276</v>
@@ -12068,14 +12061,14 @@
       </c>
       <c r="O66" s="27">
         <f t="shared" ref="O66:O95" ca="1" si="3">NOW()</f>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="27">
         <f t="shared" ref="Q66:Q95" ca="1" si="4">NOW()</f>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12092,16 +12085,16 @@
         <v>278</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>335</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>1</v>
@@ -12123,14 +12116,14 @@
       </c>
       <c r="O67" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12147,16 +12140,16 @@
         <v>278</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>1</v>
@@ -12178,14 +12171,14 @@
       </c>
       <c r="O68" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q68" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12202,16 +12195,16 @@
         <v>284</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>254</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>285</v>
@@ -12233,14 +12226,14 @@
       </c>
       <c r="O69" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12257,16 +12250,16 @@
         <v>284</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>182</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>287</v>
@@ -12288,14 +12281,14 @@
       </c>
       <c r="O70" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12312,16 +12305,16 @@
         <v>284</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>257</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>189</v>
@@ -12343,14 +12336,14 @@
       </c>
       <c r="O71" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12367,16 +12360,16 @@
         <v>284</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>259</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>190</v>
@@ -12398,14 +12391,14 @@
       </c>
       <c r="O72" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12422,16 +12415,16 @@
         <v>284</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>261</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>191</v>
@@ -12453,14 +12446,14 @@
       </c>
       <c r="O73" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" ht="105">
@@ -12468,7 +12461,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>1</v>
@@ -12477,16 +12470,16 @@
         <v>284</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>292</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>203</v>
@@ -12508,14 +12501,14 @@
       </c>
       <c r="O74" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12532,13 +12525,13 @@
         <v>8</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>330</v>
@@ -12563,14 +12556,14 @@
       </c>
       <c r="O75" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12587,16 +12580,16 @@
         <v>8</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>1</v>
@@ -12618,14 +12611,14 @@
       </c>
       <c r="O76" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" ht="45">
@@ -12642,16 +12635,16 @@
         <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>1</v>
@@ -12673,14 +12666,14 @@
       </c>
       <c r="O77" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12697,16 +12690,16 @@
         <v>8</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>1</v>
@@ -12728,14 +12721,14 @@
       </c>
       <c r="O78" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" ht="75">
@@ -12752,16 +12745,16 @@
         <v>8</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>335</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>1</v>
@@ -12783,14 +12776,14 @@
       </c>
       <c r="O79" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30">
@@ -12807,13 +12800,13 @@
         <v>18</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>474</v>
@@ -12838,14 +12831,14 @@
       </c>
       <c r="O80" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="75">
@@ -12862,13 +12855,13 @@
         <v>26</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>314</v>
@@ -12893,14 +12886,14 @@
       </c>
       <c r="O81" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="30">
@@ -12917,13 +12910,13 @@
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>306</v>
@@ -12948,14 +12941,14 @@
       </c>
       <c r="O82" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="60">
@@ -12972,16 +12965,16 @@
         <v>8</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>294</v>
@@ -12999,14 +12992,14 @@
       </c>
       <c r="O83" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="45">
@@ -13023,16 +13016,16 @@
         <v>8</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>300</v>
@@ -13054,14 +13047,14 @@
       </c>
       <c r="O84" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q84" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="45">
@@ -13078,13 +13071,13 @@
         <v>8</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>302</v>
@@ -13109,14 +13102,14 @@
       </c>
       <c r="O85" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q85" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60">
@@ -13124,7 +13117,7 @@
         <v>204</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>309</v>
@@ -13133,13 +13126,13 @@
         <v>22</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>310</v>
@@ -13164,14 +13157,14 @@
       </c>
       <c r="O86" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P86" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q86" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="60">
@@ -13188,16 +13181,16 @@
         <v>317</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>319</v>
@@ -13219,14 +13212,14 @@
       </c>
       <c r="O87" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q87" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="30">
@@ -13243,16 +13236,16 @@
         <v>317</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>322</v>
@@ -13274,14 +13267,14 @@
       </c>
       <c r="O88" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q88" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="30">
@@ -13298,16 +13291,16 @@
         <v>317</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>335</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>327</v>
@@ -13319,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M89" s="5" t="s">
         <v>328</v>
@@ -13329,14 +13322,14 @@
       </c>
       <c r="O89" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q89" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="30">
@@ -13353,13 +13346,13 @@
         <v>100</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>726</v>
@@ -13377,21 +13370,21 @@
         <v>740</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>298</v>
       </c>
       <c r="O90" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q90" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="30">
@@ -13408,13 +13401,13 @@
         <v>100</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>728</v>
@@ -13439,14 +13432,14 @@
       </c>
       <c r="O91" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q91" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="45">
@@ -13463,13 +13456,13 @@
         <v>100</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>732</v>
@@ -13492,14 +13485,14 @@
       </c>
       <c r="O92" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q92" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="30">
@@ -13516,13 +13509,13 @@
         <v>100</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>735</v>
@@ -13540,21 +13533,21 @@
         <v>740</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>298</v>
       </c>
       <c r="O93" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q93" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="45">
@@ -13571,13 +13564,13 @@
         <v>100</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>737</v>
@@ -13592,20 +13585,22 @@
       <c r="L94" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="M94" s="5"/>
+      <c r="M94" s="5" t="s">
+        <v>755</v>
+      </c>
       <c r="N94" s="5" t="s">
         <v>298</v>
       </c>
       <c r="O94" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P94" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q94" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30">
@@ -13622,13 +13617,13 @@
         <v>100</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>739</v>
@@ -13644,21 +13639,21 @@
         <v>740</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>298</v>
       </c>
       <c r="O95" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>724</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45748.619110879627</v>
+        <v>45764.445382986109</v>
       </c>
     </row>
   </sheetData>
@@ -13677,9 +13672,9 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13724,10 +13719,10 @@
         <v>508</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>16</v>
@@ -13745,10 +13740,10 @@
         <v>509</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>11</v>
@@ -13766,10 +13761,10 @@
         <v>510</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
@@ -13787,10 +13782,10 @@
         <v>511</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
@@ -13808,10 +13803,10 @@
         <v>512</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
@@ -13829,10 +13824,10 @@
         <v>513</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
@@ -13844,7 +13839,7 @@
         <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>520</v>
@@ -13863,7 +13858,7 @@
         <v>502</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>521</v>
@@ -13882,7 +13877,7 @@
         <v>503</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>522</v>
@@ -13901,7 +13896,7 @@
         <v>504</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>523</v>
@@ -13920,7 +13915,7 @@
         <v>505</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>524</v>
@@ -13939,7 +13934,7 @@
         <v>506</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>525</v>
@@ -13958,7 +13953,7 @@
         <v>507</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>526</v>
@@ -13977,7 +13972,7 @@
         <v>337</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>519</v>
@@ -13996,7 +13991,7 @@
         <v>529</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>518</v>
@@ -14015,7 +14010,7 @@
         <v>530</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>517</v>
@@ -14034,7 +14029,7 @@
         <v>531</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>516</v>
@@ -14053,7 +14048,7 @@
         <v>532</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>515</v>
@@ -14072,7 +14067,7 @@
         <v>528</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>514</v>
@@ -14091,10 +14086,10 @@
         <v>527</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>551</v>
@@ -14110,7 +14105,7 @@
         <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>607</v>
@@ -14129,7 +14124,7 @@
         <v>533</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>534</v>
@@ -14148,7 +14143,7 @@
         <v>535</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>536</v>
@@ -14167,7 +14162,7 @@
         <v>537</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>538</v>
@@ -14186,7 +14181,7 @@
         <v>539</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>542</v>
@@ -14205,7 +14200,7 @@
         <v>540</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>543</v>
@@ -14224,7 +14219,7 @@
         <v>541</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>544</v>
@@ -14243,7 +14238,7 @@
         <v>214</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>606</v>
@@ -14262,7 +14257,7 @@
         <v>583</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>588</v>
@@ -14281,7 +14276,7 @@
         <v>584</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>589</v>
@@ -14300,7 +14295,7 @@
         <v>585</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>590</v>
@@ -14319,7 +14314,7 @@
         <v>586</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>591</v>
@@ -14338,7 +14333,7 @@
         <v>587</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>592</v>
@@ -14357,7 +14352,7 @@
         <v>582</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>581</v>
@@ -14376,7 +14371,7 @@
         <v>215</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>605</v>
@@ -14395,7 +14390,7 @@
         <v>615</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>609</v>
@@ -14414,7 +14409,7 @@
         <v>616</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>610</v>
@@ -14433,7 +14428,7 @@
         <v>617</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>611</v>
@@ -14452,7 +14447,7 @@
         <v>618</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>612</v>
@@ -14471,7 +14466,7 @@
         <v>619</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>613</v>
@@ -14490,7 +14485,7 @@
         <v>614</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>608</v>
@@ -14506,7 +14501,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="A43" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>336</v>
@@ -14525,10 +14520,10 @@
     </row>
     <row r="44" spans="1:7" ht="60">
       <c r="A44" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>632</v>
@@ -14544,10 +14539,10 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="A45" s="8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>633</v>
@@ -14563,10 +14558,10 @@
     </row>
     <row r="46" spans="1:7" ht="60">
       <c r="A46" s="8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>634</v>
@@ -14582,10 +14577,10 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="A47" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>635</v>
@@ -14601,10 +14596,10 @@
     </row>
     <row r="48" spans="1:7" ht="60">
       <c r="A48" s="8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>636</v>
@@ -14620,10 +14615,10 @@
     </row>
     <row r="49" spans="1:7" ht="60">
       <c r="A49" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>637</v>
@@ -14642,7 +14637,7 @@
         <v>206</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>339</v>
@@ -14661,7 +14656,7 @@
         <v>209</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>696</v>
@@ -14677,7 +14672,7 @@
         <v>212</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>697</v>
@@ -14693,7 +14688,7 @@
         <v>218</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>698</v>
@@ -14706,10 +14701,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>699</v>
@@ -14823,7 +14818,7 @@
         <v>712</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>716</v>
@@ -14839,10 +14834,10 @@
         <v>709</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>914</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>916</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>717</v>
@@ -14861,7 +14856,7 @@
         <v>713</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>718</v>
@@ -14880,7 +14875,7 @@
         <v>714</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>719</v>
@@ -14965,7 +14960,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -14979,7 +14974,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -14990,10 +14985,10 @@
         <v>154</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
@@ -15004,10 +14999,10 @@
         <v>160</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
@@ -15018,7 +15013,7 @@
         <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>166</v>
@@ -15032,10 +15027,10 @@
         <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D7" t="s">
         <v>167</v>
@@ -15052,7 +15047,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -15066,7 +15061,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -15080,7 +15075,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -15088,7 +15083,7 @@
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>188</v>
@@ -15105,13 +15100,13 @@
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D12" s="8">
         <v>68.3</v>
@@ -15179,7 +15174,7 @@
         <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D16" s="10">
         <v>99.8</v>
@@ -15196,7 +15191,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D17" s="10"/>
       <c r="F17" t="s">
@@ -15211,7 +15206,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -15239,7 +15234,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -15253,7 +15248,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F21" t="s">
         <v>269</v>
@@ -15267,7 +15262,7 @@
         <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F22" t="s">
         <v>270</v>
@@ -15281,7 +15276,7 @@
         <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F23" t="s">
         <v>270</v>
@@ -15309,7 +15304,7 @@
         <v>295</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -15317,10 +15312,10 @@
         <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F26" t="s">
         <v>270</v>
@@ -15334,7 +15329,7 @@
         <v>318</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -15356,10 +15351,10 @@
         <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -15373,12 +15368,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C66609-5758-4067-9188-E18112A71DFE}">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
-      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15416,7 +15411,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -15427,18 +15422,18 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15449,71 +15444,75 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="5">
-        <v>1.89E-2</v>
+      <c r="E6" s="5" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>746</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="8" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>1209</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
       <c r="A9" s="8" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="120">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -15523,279 +15522,275 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="120">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>113</v>
+        <v>746</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
-        <v>101</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>747</v>
+        <v>114</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>1129</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>114</v>
+        <v>747</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="5" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="8" t="s">
-        <v>748</v>
+        <v>115</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>115</v>
+        <v>748</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>749</v>
+        <v>116</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>116</v>
+        <v>770</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="8" t="s">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75">
       <c r="A20" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>1211</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+      <c r="E20" s="15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60">
       <c r="A21" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>1214</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>1212</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60">
+      <c r="E22" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
       <c r="A24" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>1215</v>
-      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>127</v>
+        <v>771</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>773</v>
+        <v>128</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>128</v>
+        <v>772</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>132</v>
+        <v>774</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>775</v>
+        <v>140</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -15809,216 +15804,226 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30">
+    <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60">
       <c r="A40" s="8" t="s">
-        <v>780</v>
+        <v>147</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="5" t="s">
+        <v>1213</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="5" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60">
       <c r="A41" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>147</v>
+        <v>779</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="5" t="s">
-        <v>1216</v>
-      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>1214</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="31.5" customHeight="1">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30">
       <c r="A46" s="8" t="s">
-        <v>782</v>
+        <v>167</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60">
       <c r="A47" s="8" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60">
       <c r="A48" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>1217</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="60">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>169</v>
+        <v>783</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>1219</v>
-      </c>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="5" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="60">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="5" t="s">
-        <v>171</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
       <c r="A52" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="5" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="51">
       <c r="A53" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="E53" s="5" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="51">
       <c r="A54" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D54" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="E54" s="5" t="s">
-        <v>176</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="51">
@@ -16026,16 +16031,14 @@
         <v>109</v>
       </c>
       <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="51">
@@ -16043,140 +16046,140 @@
         <v>109</v>
       </c>
       <c r="B56" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>93</v>
+        <v>1230</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="51">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="8">
-        <v>3</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="D57" s="8" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="51">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18">
       <c r="A58" s="8" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="B58" s="8">
-        <v>4</v>
-      </c>
-      <c r="C58" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="D58" s="8" t="s">
-        <v>1233</v>
+        <v>342</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45">
       <c r="A59" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
-        <v>1</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="63">
       <c r="A60" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>1</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="63">
       <c r="A61" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" s="8">
-        <v>2</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="63">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>348</v>
-      </c>
+      <c r="D62" s="8"/>
       <c r="E62" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="63">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60">
       <c r="A63" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="8"/>
+        <v>353</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
       <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>351</v>
+      <c r="D63" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30">
       <c r="A64" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="8"/>
+        <v>353</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2</v>
+      </c>
       <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="E64" s="5" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="60">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30">
       <c r="A65" s="8" t="s">
         <v>353</v>
       </c>
       <c r="B65" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>362</v>
@@ -16187,330 +16190,322 @@
         <v>353</v>
       </c>
       <c r="B66" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="8">
-        <v>3</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="5" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="120">
       <c r="A68" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B68" s="8">
-        <v>4</v>
-      </c>
-      <c r="C68" s="8"/>
+        <v>374</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="D68" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>375</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="120">
       <c r="A69" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+        <v>386</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="D69" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="120">
+        <v>387</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="8" t="s">
-        <v>1</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="5" t="s">
-        <v>375</v>
+        <v>95</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="120">
+        <v>1129</v>
+      </c>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" ht="90">
       <c r="A71" s="8" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>399</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="120">
       <c r="A72" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="D72" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" ht="90">
+        <v>408</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="45">
       <c r="A73" s="8" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C73" s="8"/>
       <c r="D73" s="5" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="120">
+        <v>411</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="135">
       <c r="A74" s="8" t="s">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C74" s="8"/>
       <c r="D74" s="5" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="45">
+    <row r="75" spans="1:6" ht="75">
       <c r="A75" s="8" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="8"/>
       <c r="D75" s="5" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="135">
+    <row r="76" spans="1:6" ht="90">
       <c r="A76" s="8" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
       <c r="D76" s="5" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="75">
+    <row r="77" spans="1:6" ht="30">
       <c r="A77" s="8" t="s">
-        <v>425</v>
+        <v>785</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="5" t="s">
-        <v>427</v>
-      </c>
+      <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>426</v>
+        <v>810</v>
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="90">
+    <row r="78" spans="1:6" ht="30">
       <c r="A78" s="8" t="s">
-        <v>438</v>
+        <v>786</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="5" t="s">
-        <v>439</v>
-      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>426</v>
+        <v>810</v>
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:6" ht="75">
       <c r="A79" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D79" s="8"/>
       <c r="E79" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="30">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D80" s="8"/>
       <c r="E80" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" ht="75">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45">
       <c r="A81" s="8" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
-        <v>1223</v>
-      </c>
+      <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="5" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="E83" s="5" t="s">
-        <v>818</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="8" t="s">
-        <v>1225</v>
-      </c>
+      <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="5" t="s">
-        <v>1134</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>315</v>
-      </c>
+      <c r="D85" s="8"/>
       <c r="E85" s="5" t="s">
-        <v>1073</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>276</v>
+        <v>787</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="5" t="s">
-        <v>1074</v>
+        <v>811</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>279</v>
+        <v>788</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="5" t="s">
-        <v>280</v>
+        <v>811</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="8" t="s">
-        <v>789</v>
+        <v>330</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="5" t="s">
-        <v>813</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="5" t="s">
-        <v>813</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
-        <v>330</v>
+        <v>790</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="5" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -16521,7 +16516,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -16532,974 +16527,982 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="8" t="s">
-        <v>793</v>
+        <v>474</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="8" t="s">
-        <v>794</v>
+        <v>308</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="5" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="81">
       <c r="A95" s="8" t="s">
-        <v>474</v>
+        <v>314</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="E95" s="5" t="s">
-        <v>1076</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
-        <v>308</v>
+        <v>474</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="81">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="5" t="s">
-        <v>467</v>
-      </c>
+      <c r="D97" s="8"/>
       <c r="E97" s="5" t="s">
-        <v>819</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30">
       <c r="A99" s="8" t="s">
-        <v>306</v>
+        <v>798</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="5" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="45">
       <c r="A100" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+      <c r="C100" s="8" t="s">
+        <v>1223</v>
+      </c>
       <c r="D100" s="8"/>
       <c r="E100" s="5" t="s">
-        <v>1079</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30">
       <c r="A101" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="5" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30">
       <c r="A102" s="8" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="5" t="s">
-        <v>297</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30">
       <c r="A103" s="8" t="s">
-        <v>801</v>
+        <v>302</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30">
       <c r="A104" s="8" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B104" s="8"/>
-      <c r="C104" s="8" t="s">
-        <v>1227</v>
-      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="5" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="8" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>1225</v>
+      </c>
       <c r="D105" s="8"/>
       <c r="E105" s="5" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30">
+    <row r="106" spans="1:5">
       <c r="A106" s="8" t="s">
-        <v>310</v>
+        <v>800</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="5" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
       <c r="A107" s="8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B107" s="8"/>
-      <c r="C107" s="8" t="s">
-        <v>1228</v>
-      </c>
+      <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="5" t="s">
-        <v>1084</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="5" t="s">
-        <v>1135</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
       <c r="A109" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="5" t="s">
-        <v>450</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30">
       <c r="A111" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="5" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="8" t="s">
-        <v>804</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="6" customFormat="1">
+      <c r="A112" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>485</v>
+      </c>
       <c r="E112" s="5" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30">
-      <c r="A113" s="8" t="s">
-        <v>328</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="6" customFormat="1">
+      <c r="A113" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="D113" s="8" t="s">
+        <v>486</v>
+      </c>
       <c r="E113" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="6" customFormat="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="6" customFormat="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>483</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1092</v>
+        <v>650</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1093</v>
+        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="5" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="8" t="s">
-        <v>648</v>
+      <c r="D156" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>683</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="8" t="s">
-        <v>649</v>
+      <c r="D157" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>684</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="5" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="5" t="s">
-        <v>706</v>
+      <c r="D159" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="5" t="s">
-        <v>707</v>
+      <c r="D160" s="8" t="s">
+        <v>701</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="8" t="s">
-        <v>703</v>
+      <c r="D164" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="8" t="s">
-        <v>704</v>
+      <c r="D165" s="5" t="s">
+        <v>721</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="5" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E167" s="5" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="45">
+      <c r="A168" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B168" s="8">
+        <v>1</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E168" s="5" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E168" s="5" t="s">
+    <row r="169" spans="1:5" ht="45">
+      <c r="A169" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>1104</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="45">
@@ -17507,125 +17510,119 @@
         <v>726</v>
       </c>
       <c r="B170" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8" t="s">
         <v>751</v>
       </c>
       <c r="E170" s="5" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="195">
+      <c r="A171" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D171" s="8"/>
+      <c r="E171" s="5" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="45">
-      <c r="A171" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="B171" s="8">
-        <v>2</v>
-      </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="45">
+    <row r="172" spans="1:5" ht="30">
       <c r="A172" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="B172" s="8">
-        <v>3</v>
-      </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8" t="s">
-        <v>753</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D172" s="8"/>
       <c r="E172" s="5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="195">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30">
       <c r="A173" s="5" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="8" t="s">
-        <v>810</v>
+        <v>1226</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="5" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="75">
       <c r="A174" s="5" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
       <c r="B174" s="8"/>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="8"/>
+      <c r="D174" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E174" s="5" t="s">
         <v>760</v>
-      </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="5" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30">
       <c r="A175" s="5" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B175" s="8"/>
-      <c r="C175" s="8" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8" t="s">
+        <v>753</v>
+      </c>
       <c r="E175" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="75">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="5" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="5" t="s">
-        <v>751</v>
-      </c>
+      <c r="D176" s="8"/>
       <c r="E176" s="5" t="s">
-        <v>762</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30">
       <c r="A177" s="5" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8" t="s">
-        <v>755</v>
-      </c>
+      <c r="C177" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="D177" s="8"/>
       <c r="E177" s="5" t="s">
-        <v>733</v>
+        <v>804</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="5" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="75">
       <c r="A179" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="8" t="s">
@@ -17633,66 +17630,64 @@
       </c>
       <c r="D179" s="8"/>
       <c r="E179" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="20.25" customHeight="1">
       <c r="A180" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="5" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="75">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="45">
       <c r="A181" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D181" s="8"/>
       <c r="E181" s="5" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="20.25" customHeight="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="17" customFormat="1">
       <c r="A182" s="5" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="5" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="45">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="5" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="8" t="s">
-        <v>808</v>
-      </c>
+      <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="5" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="17" customFormat="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="5" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="5" t="s">
-        <v>742</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -17703,7 +17698,7 @@
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -17714,7 +17709,7 @@
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="5" t="s">
-        <v>1270</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -17725,79 +17720,57 @@
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="5" t="s">
-        <v>798</v>
+      <c r="A188" s="12" t="s">
+        <v>1260</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="5" t="s">
-        <v>512</v>
+      <c r="E188" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="5" t="s">
-        <v>1271</v>
+        <v>1259</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="12" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="5" t="b">
-        <v>0</v>
+      <c r="A190" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E190" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="E191" s="1">
-        <v>1.89E-2</v>
+      <c r="E191" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E192" s="1">
-        <v>11</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E193" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E194" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E195" s="1">
+        <v>1264</v>
+      </c>
+      <c r="E193" s="1">
         <v>0.98109999999999997</v>
       </c>
     </row>
@@ -17832,7 +17805,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>74</v>
@@ -17897,7 +17870,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>28</v>
@@ -17906,7 +17879,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="165">
@@ -17926,7 +17899,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="222.75" customHeight="1">
@@ -17946,7 +17919,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
@@ -17977,7 +17950,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>28</v>
@@ -17986,7 +17959,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="151.5">
@@ -18006,7 +17979,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="126">
@@ -18023,7 +17996,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="126">
@@ -18040,7 +18013,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90">
@@ -18051,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>28</v>
@@ -18071,7 +18044,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>28</v>
@@ -18100,7 +18073,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="135">
@@ -18131,7 +18104,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
@@ -18151,7 +18124,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>28</v>
@@ -18171,7 +18144,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -18191,7 +18164,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>28</v>
@@ -18211,7 +18184,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>28</v>
@@ -18231,7 +18204,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>28</v>
@@ -18248,7 +18221,7 @@
         <v>373</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>28</v>
@@ -18257,7 +18230,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="105">
@@ -18288,7 +18261,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>28</v>
@@ -18368,7 +18341,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>28</v>
@@ -18388,7 +18361,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>28</v>
@@ -18397,7 +18370,7 @@
         <v>39</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="150">
@@ -18408,7 +18381,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>28</v>
@@ -18417,7 +18390,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="105">
@@ -18448,7 +18421,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>28</v>
@@ -18488,7 +18461,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>28</v>
@@ -18517,7 +18490,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="180">
@@ -18528,7 +18501,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>28</v>
@@ -18537,7 +18510,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="105">
@@ -18548,7 +18521,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>28</v>
@@ -18557,7 +18530,7 @@
         <v>39</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="105">
@@ -18585,7 +18558,7 @@
         <v>95</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>28</v>
@@ -18594,7 +18567,7 @@
         <v>39</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="346.5">
@@ -18605,7 +18578,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>28</v>
@@ -18614,7 +18587,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="186.75" customHeight="1">
@@ -18645,7 +18618,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>28</v>
@@ -18665,7 +18638,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>28</v>
@@ -18706,7 +18679,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>28</v>
@@ -18726,7 +18699,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>28</v>
@@ -18735,7 +18708,7 @@
         <v>39</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="90">
@@ -18746,7 +18719,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>28</v>
@@ -18766,7 +18739,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>28</v>
@@ -18786,7 +18759,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>28</v>
@@ -18815,7 +18788,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="165">
@@ -18826,7 +18799,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>28</v>
@@ -18835,7 +18808,7 @@
         <v>39</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="90">
@@ -18846,7 +18819,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>28</v>
@@ -18906,7 +18879,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>28</v>
@@ -18926,7 +18899,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>28</v>
@@ -18966,7 +18939,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
@@ -18986,7 +18959,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>28</v>
@@ -19006,7 +18979,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>28</v>
@@ -19107,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>28</v>
@@ -19136,7 +19109,7 @@
         <v>39</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="409.5">
@@ -19224,7 +19197,7 @@
         <v>315</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>28</v>
@@ -19233,7 +19206,7 @@
         <v>39</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="151.5">
@@ -19241,7 +19214,7 @@
         <v>485</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>28</v>
@@ -19250,7 +19223,7 @@
         <v>39</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="150">
@@ -19258,7 +19231,7 @@
         <v>486</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>28</v>
@@ -19267,7 +19240,7 @@
         <v>39</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G73" s="8"/>
     </row>
@@ -19276,7 +19249,7 @@
         <v>498</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>28</v>
@@ -19285,7 +19258,7 @@
         <v>39</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="166.5">
@@ -19293,7 +19266,7 @@
         <v>499</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>28</v>
@@ -19302,7 +19275,7 @@
         <v>39</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G75" s="8"/>
     </row>
@@ -19311,7 +19284,7 @@
         <v>500</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>28</v>
@@ -19320,7 +19293,7 @@
         <v>39</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G76" s="8"/>
     </row>
@@ -19329,7 +19302,7 @@
         <v>501</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>28</v>
@@ -19338,7 +19311,7 @@
         <v>39</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G77" s="8"/>
     </row>
@@ -19347,7 +19320,7 @@
         <v>497</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>28</v>
@@ -19356,7 +19329,7 @@
         <v>39</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G78" s="8"/>
     </row>
@@ -19365,7 +19338,7 @@
         <v>491</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>28</v>
@@ -19374,7 +19347,7 @@
         <v>39</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G79" s="8"/>
     </row>
@@ -19383,7 +19356,7 @@
         <v>563</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>28</v>
@@ -19392,7 +19365,7 @@
         <v>39</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19400,7 +19373,7 @@
         <v>570</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>28</v>
@@ -19409,7 +19382,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19417,7 +19390,7 @@
         <v>571</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>28</v>
@@ -19426,7 +19399,7 @@
         <v>39</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19434,7 +19407,7 @@
         <v>572</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>28</v>
@@ -19443,7 +19416,7 @@
         <v>39</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19451,7 +19424,7 @@
         <v>573</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>28</v>
@@ -19460,7 +19433,7 @@
         <v>39</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19468,7 +19441,7 @@
         <v>574</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>28</v>
@@ -19477,7 +19450,7 @@
         <v>39</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19485,7 +19458,7 @@
         <v>575</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>28</v>
@@ -19494,7 +19467,7 @@
         <v>39</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19502,7 +19475,7 @@
         <v>576</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>28</v>
@@ -19511,7 +19484,7 @@
         <v>39</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19519,7 +19492,7 @@
         <v>577</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>28</v>
@@ -19528,7 +19501,7 @@
         <v>39</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19536,7 +19509,7 @@
         <v>578</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>28</v>
@@ -19545,7 +19518,7 @@
         <v>39</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19553,7 +19526,7 @@
         <v>579</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>28</v>
@@ -19562,7 +19535,7 @@
         <v>39</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19570,7 +19543,7 @@
         <v>580</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>28</v>
@@ -19579,7 +19552,7 @@
         <v>39</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19587,7 +19560,7 @@
         <v>564</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>28</v>
@@ -19596,7 +19569,7 @@
         <v>39</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19604,7 +19577,7 @@
         <v>565</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>28</v>
@@ -19613,7 +19586,7 @@
         <v>39</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19621,7 +19594,7 @@
         <v>566</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>28</v>
@@ -19630,7 +19603,7 @@
         <v>39</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19638,7 +19611,7 @@
         <v>567</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>28</v>
@@ -19647,7 +19620,7 @@
         <v>39</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19655,7 +19628,7 @@
         <v>568</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>28</v>
@@ -19664,7 +19637,7 @@
         <v>39</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19672,7 +19645,7 @@
         <v>569</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>28</v>
@@ -19681,7 +19654,7 @@
         <v>39</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19689,7 +19662,7 @@
         <v>599</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>28</v>
@@ -19698,7 +19671,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19706,7 +19679,7 @@
         <v>600</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>28</v>
@@ -19715,7 +19688,7 @@
         <v>39</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19723,7 +19696,7 @@
         <v>601</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>28</v>
@@ -19732,7 +19705,7 @@
         <v>39</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19740,7 +19713,7 @@
         <v>602</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>28</v>
@@ -19749,7 +19722,7 @@
         <v>39</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19757,7 +19730,7 @@
         <v>603</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>28</v>
@@ -19766,7 +19739,7 @@
         <v>39</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19774,7 +19747,7 @@
         <v>604</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>28</v>
@@ -19783,7 +19756,7 @@
         <v>39</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19791,7 +19764,7 @@
         <v>626</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>28</v>
@@ -19800,7 +19773,7 @@
         <v>39</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19808,7 +19781,7 @@
         <v>631</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>28</v>
@@ -19817,7 +19790,7 @@
         <v>39</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19825,7 +19798,7 @@
         <v>627</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>28</v>
@@ -19834,7 +19807,7 @@
         <v>39</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19842,7 +19815,7 @@
         <v>628</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>28</v>
@@ -19851,7 +19824,7 @@
         <v>39</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19859,7 +19832,7 @@
         <v>629</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>28</v>
@@ -19868,7 +19841,7 @@
         <v>39</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19876,7 +19849,7 @@
         <v>630</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>28</v>
@@ -19885,7 +19858,7 @@
         <v>39</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19893,7 +19866,7 @@
         <v>644</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>28</v>
@@ -19902,7 +19875,7 @@
         <v>39</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19910,7 +19883,7 @@
         <v>645</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>28</v>
@@ -19919,7 +19892,7 @@
         <v>39</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="8" customFormat="1" ht="181.5">
@@ -19927,7 +19900,7 @@
         <v>646</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>28</v>
@@ -19936,7 +19909,7 @@
         <v>39</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="181.5">
@@ -19944,7 +19917,7 @@
         <v>647</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>28</v>
@@ -19953,7 +19926,7 @@
         <v>39</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G113" s="8"/>
     </row>
@@ -19962,7 +19935,7 @@
         <v>648</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>28</v>
@@ -19971,7 +19944,7 @@
         <v>39</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G114" s="8"/>
     </row>
@@ -19980,7 +19953,7 @@
         <v>649</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>28</v>
@@ -19989,7 +19962,7 @@
         <v>39</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G115" s="8"/>
     </row>
@@ -19998,7 +19971,7 @@
         <v>705</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>28</v>
@@ -20007,7 +19980,7 @@
         <v>39</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G116" s="8"/>
     </row>
@@ -20016,7 +19989,7 @@
         <v>706</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>28</v>
@@ -20025,7 +19998,7 @@
         <v>39</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="151.5">
@@ -20033,7 +20006,7 @@
         <v>707</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>28</v>
@@ -20042,7 +20015,7 @@
         <v>39</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="91.5">
@@ -20050,7 +20023,7 @@
         <v>700</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>28</v>
@@ -20059,7 +20032,7 @@
         <v>39</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G119" s="8"/>
     </row>
@@ -20068,7 +20041,7 @@
         <v>701</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>28</v>
@@ -20077,7 +20050,7 @@
         <v>39</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G120" s="8"/>
     </row>
@@ -20086,7 +20059,7 @@
         <v>702</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>28</v>
@@ -20095,7 +20068,7 @@
         <v>39</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G121" s="8"/>
     </row>
@@ -20104,7 +20077,7 @@
         <v>703</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>28</v>
@@ -20113,7 +20086,7 @@
         <v>39</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G122" s="8"/>
     </row>
@@ -20122,7 +20095,7 @@
         <v>704</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>28</v>
@@ -20131,7 +20104,7 @@
         <v>39</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G123" s="8"/>
     </row>
@@ -20140,7 +20113,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>28</v>
@@ -20149,7 +20122,7 @@
         <v>39</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G124" s="8"/>
     </row>
@@ -20158,7 +20131,7 @@
         <v>721</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>28</v>
@@ -20167,7 +20140,7 @@
         <v>39</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G125" s="8"/>
     </row>
@@ -20176,7 +20149,7 @@
         <v>722</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>28</v>
@@ -20185,7 +20158,7 @@
         <v>39</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="109.5" customHeight="1">
@@ -20193,7 +20166,7 @@
         <v>723</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>28</v>
@@ -20202,15 +20175,15 @@
         <v>39</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="90">
       <c r="A128" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>28</v>
@@ -20219,15 +20192,15 @@
         <v>39</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="90">
       <c r="A129" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>28</v>
@@ -20236,15 +20209,15 @@
         <v>39</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="90">
       <c r="A130" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>28</v>
@@ -20253,16 +20226,16 @@
         <v>39</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" ht="75">
       <c r="A131" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>28</v>
@@ -20271,7 +20244,7 @@
         <v>39</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -20303,10 +20276,10 @@
         <v>455</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20339,7 +20312,7 @@
         <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
@@ -20358,32 +20331,32 @@
         <v>740</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C8" t="s">
         <v>1014</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -20407,63 +20380,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -20471,18 +20444,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B9" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B10" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
